--- a/database/seeders/ACCESOS.xlsx
+++ b/database/seeders/ACCESOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPPROD\htdocs\GITComponentes\Seguimiento\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GitComponentes\Seguimiento\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95AF146-71BF-4225-B96B-5EE8D1988C73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02409BD-E78D-43B9-B528-E05986DC6AA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$744</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$749</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="176">
   <si>
     <t>permiso</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>tipologiaaccion</t>
+  </si>
+  <si>
+    <t>turnoui</t>
+  </si>
+  <si>
+    <t>turnooic</t>
+  </si>
+  <si>
+    <t>turnoarchivo</t>
   </si>
 </sst>
 </file>
@@ -903,13 +912,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J749"/>
+  <dimension ref="A1:J770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A749" sqref="A749"/>
+    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A771" sqref="A771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -975,7 +984,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -993,7 +1002,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1020,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1038,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1056,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1074,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1092,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1110,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1128,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1146,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1164,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1200,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1218,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1236,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1245,7 +1254,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1272,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1281,7 +1290,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,7 +1308,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1335,7 +1344,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1362,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1380,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,7 +1398,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1407,7 +1416,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1434,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,7 +1452,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1470,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1605,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1677,7 +1686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +1816,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1834,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1852,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1863,7 +1872,7 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1892,7 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +1910,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
@@ -1919,7 +1928,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,7 +1946,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,7 +1964,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,7 +1982,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +2002,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -2013,7 +2022,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,7 +2040,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2049,7 +2058,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2076,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -2085,7 +2094,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -2103,7 +2112,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
@@ -2123,7 +2132,7 @@
       </c>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -2143,7 +2152,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -2163,7 +2172,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,7 +2190,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>26</v>
       </c>
@@ -2199,7 +2208,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2226,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>26</v>
       </c>
@@ -2235,7 +2244,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
@@ -2255,7 +2264,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
@@ -2275,7 +2284,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>26</v>
       </c>
@@ -2295,7 +2304,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -2313,7 +2322,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -2331,7 +2340,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>27</v>
       </c>
@@ -2349,7 +2358,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
@@ -2367,7 +2376,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
@@ -2387,7 +2396,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2416,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -2425,7 +2434,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -2443,7 +2452,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -2461,7 +2470,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -2479,7 +2488,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2506,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -2517,7 +2526,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -2537,7 +2546,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -2555,7 +2564,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -2573,7 +2582,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -2593,7 +2602,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -2611,7 +2620,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -2629,7 +2638,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -2649,7 +2658,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -2669,7 +2678,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,7 +2696,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +2714,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -2731,7 +2740,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -2749,7 +2758,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -2767,7 +2776,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -2789,7 +2798,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -2809,7 +2818,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>30</v>
       </c>
@@ -2827,7 +2836,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>30</v>
       </c>
@@ -2845,7 +2854,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -2873,7 +2882,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -2891,7 +2900,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>31</v>
       </c>
@@ -2909,7 +2918,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>31</v>
       </c>
@@ -2929,7 +2938,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>31</v>
       </c>
@@ -2949,7 +2958,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>31</v>
       </c>
@@ -2967,7 +2976,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>31</v>
       </c>
@@ -2985,7 +2994,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -3003,7 +3012,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -3021,7 +3030,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -3039,7 +3048,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,7 +3068,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -3079,7 +3088,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>32</v>
       </c>
@@ -3097,7 +3106,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>32</v>
       </c>
@@ -3115,7 +3124,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -3147,7 +3156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -3165,7 +3174,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,7 +3192,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>33</v>
       </c>
@@ -3233,7 +3242,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,7 +3274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>33</v>
       </c>
@@ -3283,7 +3292,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
@@ -3333,7 +3342,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -3351,7 +3360,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>34</v>
       </c>
@@ -3369,7 +3378,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>34</v>
       </c>
@@ -3387,7 +3396,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3414,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +3432,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>35</v>
       </c>
@@ -3441,7 +3450,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>35</v>
       </c>
@@ -3459,7 +3468,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>35</v>
       </c>
@@ -3477,7 +3486,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>35</v>
       </c>
@@ -3495,7 +3504,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>35</v>
       </c>
@@ -3513,7 +3522,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>35</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>35</v>
       </c>
@@ -3563,7 +3572,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>36</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>36</v>
       </c>
@@ -3615,7 +3624,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>36</v>
       </c>
@@ -3635,7 +3644,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>36</v>
       </c>
@@ -3655,7 +3664,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>36</v>
       </c>
@@ -3675,7 +3684,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>36</v>
       </c>
@@ -3693,7 +3702,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>36</v>
       </c>
@@ -3711,7 +3720,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>37</v>
       </c>
@@ -3729,7 +3738,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>37</v>
       </c>
@@ -3747,7 +3756,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>37</v>
       </c>
@@ -3765,7 +3774,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>37</v>
       </c>
@@ -3785,7 +3794,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -3805,7 +3814,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
@@ -3823,7 +3832,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>37</v>
       </c>
@@ -3841,7 +3850,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>38</v>
       </c>
@@ -3859,7 +3868,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>38</v>
       </c>
@@ -3877,7 +3886,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>38</v>
       </c>
@@ -3895,7 +3904,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>38</v>
       </c>
@@ -3915,7 +3924,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>38</v>
       </c>
@@ -3935,7 +3944,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>38</v>
       </c>
@@ -3953,7 +3962,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>38</v>
       </c>
@@ -3971,7 +3980,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>39</v>
       </c>
@@ -3989,7 +3998,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>39</v>
       </c>
@@ -4007,7 +4016,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>39</v>
       </c>
@@ -4025,7 +4034,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>39</v>
       </c>
@@ -4047,7 +4056,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>39</v>
       </c>
@@ -4069,7 +4078,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>39</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>39</v>
       </c>
@@ -4119,7 +4128,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>41</v>
       </c>
@@ -4137,7 +4146,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>41</v>
       </c>
@@ -4155,7 +4164,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>41</v>
       </c>
@@ -4173,7 +4182,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>41</v>
       </c>
@@ -4193,7 +4202,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>41</v>
       </c>
@@ -4213,7 +4222,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>41</v>
       </c>
@@ -4231,7 +4240,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>41</v>
       </c>
@@ -4249,7 +4258,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>42</v>
       </c>
@@ -4267,7 +4276,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>42</v>
       </c>
@@ -4285,7 +4294,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>42</v>
       </c>
@@ -4303,7 +4312,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>42</v>
       </c>
@@ -4321,7 +4330,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>42</v>
       </c>
@@ -4339,7 +4348,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>42</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>42</v>
       </c>
@@ -4389,7 +4398,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>43</v>
       </c>
@@ -4421,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>43</v>
       </c>
@@ -4439,7 +4448,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>43</v>
       </c>
@@ -4457,7 +4466,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>43</v>
       </c>
@@ -4477,7 +4486,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>43</v>
       </c>
@@ -4497,7 +4506,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>43</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>43</v>
       </c>
@@ -4547,7 +4556,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>44</v>
       </c>
@@ -4577,7 +4586,7 @@
       </c>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>44</v>
       </c>
@@ -4595,7 +4604,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>44</v>
       </c>
@@ -4613,7 +4622,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>44</v>
       </c>
@@ -4643,7 +4652,7 @@
       </c>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>44</v>
       </c>
@@ -4661,7 +4670,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>44</v>
       </c>
@@ -4679,7 +4688,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>44</v>
       </c>
@@ -4697,7 +4706,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>45</v>
       </c>
@@ -4727,7 +4736,7 @@
       </c>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>45</v>
       </c>
@@ -4745,7 +4754,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>45</v>
       </c>
@@ -4763,7 +4772,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>45</v>
       </c>
@@ -4793,7 +4802,7 @@
       </c>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>45</v>
       </c>
@@ -4811,7 +4820,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>45</v>
       </c>
@@ -4829,7 +4838,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>45</v>
       </c>
@@ -4847,7 +4856,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>46</v>
       </c>
@@ -4877,7 +4886,7 @@
       </c>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>46</v>
       </c>
@@ -4897,7 +4906,7 @@
       </c>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>46</v>
       </c>
@@ -4917,7 +4926,7 @@
       </c>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>46</v>
       </c>
@@ -4937,7 +4946,7 @@
       </c>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>46</v>
       </c>
@@ -4957,7 +4966,7 @@
       </c>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>46</v>
       </c>
@@ -4975,7 +4984,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>46</v>
       </c>
@@ -4993,7 +5002,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>47</v>
       </c>
@@ -5011,7 +5020,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>47</v>
       </c>
@@ -5029,7 +5038,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>47</v>
       </c>
@@ -5047,7 +5056,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>47</v>
       </c>
@@ -5067,7 +5076,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>47</v>
       </c>
@@ -5087,7 +5096,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>47</v>
       </c>
@@ -5105,7 +5114,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>47</v>
       </c>
@@ -5123,7 +5132,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>48</v>
       </c>
@@ -5141,7 +5150,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>48</v>
       </c>
@@ -5159,7 +5168,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>48</v>
       </c>
@@ -5177,7 +5186,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>48</v>
       </c>
@@ -5197,7 +5206,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>48</v>
       </c>
@@ -5217,7 +5226,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>48</v>
       </c>
@@ -5235,7 +5244,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>48</v>
       </c>
@@ -5253,7 +5262,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>49</v>
       </c>
@@ -5271,7 +5280,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>49</v>
       </c>
@@ -5289,7 +5298,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>49</v>
       </c>
@@ -5307,7 +5316,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>49</v>
       </c>
@@ -5327,7 +5336,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>49</v>
       </c>
@@ -5347,7 +5356,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>49</v>
       </c>
@@ -5365,7 +5374,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>49</v>
       </c>
@@ -5383,7 +5392,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>50</v>
       </c>
@@ -5401,7 +5410,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>50</v>
       </c>
@@ -5419,7 +5428,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>50</v>
       </c>
@@ -5437,7 +5446,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>50</v>
       </c>
@@ -5457,7 +5466,7 @@
       </c>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>50</v>
       </c>
@@ -5477,7 +5486,7 @@
       </c>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>50</v>
       </c>
@@ -5507,7 +5516,7 @@
       </c>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>50</v>
       </c>
@@ -5525,7 +5534,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>51</v>
       </c>
@@ -5543,7 +5552,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>51</v>
       </c>
@@ -5561,7 +5570,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>51</v>
       </c>
@@ -5579,7 +5588,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>51</v>
       </c>
@@ -5599,7 +5608,7 @@
       </c>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>51</v>
       </c>
@@ -5619,7 +5628,7 @@
       </c>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>51</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>51</v>
       </c>
@@ -5669,7 +5678,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>52</v>
       </c>
@@ -5687,7 +5696,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>52</v>
       </c>
@@ -5705,7 +5714,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>52</v>
       </c>
@@ -5723,7 +5732,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>52</v>
       </c>
@@ -5743,7 +5752,7 @@
       </c>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>52</v>
       </c>
@@ -5763,7 +5772,7 @@
       </c>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>52</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +5822,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>53</v>
       </c>
@@ -5845,7 +5854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>53</v>
       </c>
@@ -5863,7 +5872,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>53</v>
       </c>
@@ -5881,7 +5890,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>53</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>53</v>
       </c>
@@ -5931,7 +5940,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>53</v>
       </c>
@@ -5949,7 +5958,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>53</v>
       </c>
@@ -5967,7 +5976,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>54</v>
       </c>
@@ -5999,7 +6008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>54</v>
       </c>
@@ -6017,7 +6026,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
@@ -6035,7 +6044,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>54</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>54</v>
       </c>
@@ -6085,7 +6094,7 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>54</v>
       </c>
@@ -6103,7 +6112,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -6121,7 +6130,7 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>55</v>
       </c>
@@ -6153,7 +6162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>55</v>
       </c>
@@ -6173,7 +6182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>55</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>55</v>
       </c>
@@ -6213,7 +6222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>55</v>
       </c>
@@ -6233,7 +6242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>55</v>
       </c>
@@ -6251,7 +6260,7 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>55</v>
       </c>
@@ -6269,7 +6278,7 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -6287,7 +6296,7 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -6305,7 +6314,7 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>56</v>
       </c>
@@ -6323,7 +6332,7 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>56</v>
       </c>
@@ -6343,7 +6352,7 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>56</v>
       </c>
@@ -6363,7 +6372,7 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>56</v>
       </c>
@@ -6393,7 +6402,7 @@
       </c>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>56</v>
       </c>
@@ -6411,7 +6420,7 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
@@ -6431,7 +6440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>57</v>
       </c>
@@ -6451,7 +6460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>57</v>
       </c>
@@ -6469,7 +6478,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>57</v>
       </c>
@@ -6487,7 +6496,7 @@
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>57</v>
       </c>
@@ -6507,7 +6516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>57</v>
       </c>
@@ -6527,7 +6536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>57</v>
       </c>
@@ -6555,7 +6564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>58</v>
       </c>
@@ -6575,7 +6584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>58</v>
       </c>
@@ -6595,7 +6604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>58</v>
       </c>
@@ -6615,7 +6624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>58</v>
       </c>
@@ -6635,7 +6644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>58</v>
       </c>
@@ -6655,7 +6664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>58</v>
       </c>
@@ -6687,7 +6696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>58</v>
       </c>
@@ -6707,7 +6716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>59</v>
       </c>
@@ -6725,7 +6734,7 @@
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>59</v>
       </c>
@@ -6743,7 +6752,7 @@
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>59</v>
       </c>
@@ -6761,7 +6770,7 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>59</v>
       </c>
@@ -6781,7 +6790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>59</v>
       </c>
@@ -6801,7 +6810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>59</v>
       </c>
@@ -6829,7 +6838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>59</v>
       </c>
@@ -6847,7 +6856,7 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>60</v>
       </c>
@@ -6867,7 +6876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>60</v>
       </c>
@@ -6887,7 +6896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>60</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>60</v>
       </c>
@@ -6925,7 +6934,7 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>60</v>
       </c>
@@ -6943,7 +6952,7 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>60</v>
       </c>
@@ -6975,7 +6984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>60</v>
       </c>
@@ -6995,7 +7004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>61</v>
       </c>
@@ -7013,7 +7022,7 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>61</v>
       </c>
@@ -7031,7 +7040,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>61</v>
       </c>
@@ -7049,7 +7058,7 @@
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>61</v>
       </c>
@@ -7069,7 +7078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>61</v>
       </c>
@@ -7087,7 +7096,7 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>61</v>
       </c>
@@ -7105,7 +7114,7 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>61</v>
       </c>
@@ -7123,7 +7132,7 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>62</v>
       </c>
@@ -7141,7 +7150,7 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>62</v>
       </c>
@@ -7159,7 +7168,7 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>62</v>
       </c>
@@ -7177,7 +7186,7 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>62</v>
       </c>
@@ -7197,7 +7206,7 @@
       </c>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>62</v>
       </c>
@@ -7217,7 +7226,7 @@
       </c>
       <c r="J314" s="1"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>62</v>
       </c>
@@ -7235,7 +7244,7 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>62</v>
       </c>
@@ -7253,7 +7262,7 @@
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>63</v>
       </c>
@@ -7271,7 +7280,7 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>63</v>
       </c>
@@ -7289,7 +7298,7 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>63</v>
       </c>
@@ -7307,7 +7316,7 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>63</v>
       </c>
@@ -7327,7 +7336,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>63</v>
       </c>
@@ -7347,7 +7356,7 @@
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>63</v>
       </c>
@@ -7365,7 +7374,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>63</v>
       </c>
@@ -7383,7 +7392,7 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>64</v>
       </c>
@@ -7401,7 +7410,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>64</v>
       </c>
@@ -7419,7 +7428,7 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>64</v>
       </c>
@@ -7437,7 +7446,7 @@
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>64</v>
       </c>
@@ -7457,7 +7466,7 @@
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>64</v>
       </c>
@@ -7477,7 +7486,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>64</v>
       </c>
@@ -7495,7 +7504,7 @@
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>64</v>
       </c>
@@ -7513,7 +7522,7 @@
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>66</v>
       </c>
@@ -7531,7 +7540,7 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>66</v>
       </c>
@@ -7549,7 +7558,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>66</v>
       </c>
@@ -7567,7 +7576,7 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>66</v>
       </c>
@@ -7587,7 +7596,7 @@
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>66</v>
       </c>
@@ -7607,7 +7616,7 @@
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>66</v>
       </c>
@@ -7625,7 +7634,7 @@
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>66</v>
       </c>
@@ -7643,7 +7652,7 @@
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>67</v>
       </c>
@@ -7661,7 +7670,7 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>67</v>
       </c>
@@ -7679,7 +7688,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>67</v>
       </c>
@@ -7699,7 +7708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>67</v>
       </c>
@@ -7717,7 +7726,7 @@
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>67</v>
       </c>
@@ -7735,7 +7744,7 @@
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>67</v>
       </c>
@@ -7753,7 +7762,7 @@
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>67</v>
       </c>
@@ -7771,7 +7780,7 @@
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>68</v>
       </c>
@@ -7789,7 +7798,7 @@
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>68</v>
       </c>
@@ -7815,7 +7824,7 @@
       </c>
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>68</v>
       </c>
@@ -7841,7 +7850,7 @@
       </c>
       <c r="J347" s="1"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>68</v>
       </c>
@@ -7861,7 +7870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>68</v>
       </c>
@@ -7879,7 +7888,7 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>68</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>68</v>
       </c>
@@ -7923,7 +7932,7 @@
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>69</v>
       </c>
@@ -7941,7 +7950,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>69</v>
       </c>
@@ -7959,7 +7968,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>69</v>
       </c>
@@ -7979,7 +7988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>69</v>
       </c>
@@ -7999,7 +8008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>69</v>
       </c>
@@ -8017,7 +8026,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>69</v>
       </c>
@@ -8035,7 +8044,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>69</v>
       </c>
@@ -8053,7 +8062,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>70</v>
       </c>
@@ -8085,7 +8094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>70</v>
       </c>
@@ -8103,7 +8112,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>70</v>
       </c>
@@ -8121,7 +8130,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>70</v>
       </c>
@@ -8153,7 +8162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>70</v>
       </c>
@@ -8171,7 +8180,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>70</v>
       </c>
@@ -8189,7 +8198,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>70</v>
       </c>
@@ -8207,7 +8216,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>71</v>
       </c>
@@ -8239,7 +8248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>71</v>
       </c>
@@ -8257,7 +8266,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>71</v>
       </c>
@@ -8275,7 +8284,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>71</v>
       </c>
@@ -8307,7 +8316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>71</v>
       </c>
@@ -8325,7 +8334,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>71</v>
       </c>
@@ -8343,7 +8352,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>71</v>
       </c>
@@ -8361,7 +8370,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>72</v>
       </c>
@@ -8393,7 +8402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>72</v>
       </c>
@@ -8411,7 +8420,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>72</v>
       </c>
@@ -8429,7 +8438,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>72</v>
       </c>
@@ -8461,7 +8470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>72</v>
       </c>
@@ -8479,7 +8488,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>72</v>
       </c>
@@ -8497,7 +8506,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>72</v>
       </c>
@@ -8515,7 +8524,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>73</v>
       </c>
@@ -8547,7 +8556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>73</v>
       </c>
@@ -8565,7 +8574,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>73</v>
       </c>
@@ -8583,7 +8592,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>73</v>
       </c>
@@ -8601,7 +8610,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>73</v>
       </c>
@@ -8619,7 +8628,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>73</v>
       </c>
@@ -8637,7 +8646,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>73</v>
       </c>
@@ -8655,7 +8664,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>74</v>
       </c>
@@ -8687,7 +8696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>74</v>
       </c>
@@ -8707,7 +8716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>74</v>
       </c>
@@ -8727,7 +8736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>74</v>
       </c>
@@ -8747,7 +8756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>74</v>
       </c>
@@ -8767,7 +8776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>74</v>
       </c>
@@ -8799,7 +8808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>74</v>
       </c>
@@ -8819,7 +8828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>75</v>
       </c>
@@ -8851,7 +8860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>75</v>
       </c>
@@ -8871,7 +8880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>75</v>
       </c>
@@ -8891,7 +8900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>75</v>
       </c>
@@ -8911,7 +8920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>75</v>
       </c>
@@ -8931,7 +8940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>75</v>
       </c>
@@ -8963,7 +8972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>75</v>
       </c>
@@ -8983,7 +8992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>76</v>
       </c>
@@ -9001,7 +9010,7 @@
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>76</v>
       </c>
@@ -9019,7 +9028,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>76</v>
       </c>
@@ -9037,7 +9046,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>76</v>
       </c>
@@ -9057,7 +9066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>76</v>
       </c>
@@ -9077,7 +9086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>76</v>
       </c>
@@ -9109,7 +9118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>76</v>
       </c>
@@ -9127,7 +9136,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>77</v>
       </c>
@@ -9145,7 +9154,7 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>77</v>
       </c>
@@ -9163,7 +9172,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>77</v>
       </c>
@@ -9181,7 +9190,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>77</v>
       </c>
@@ -9201,7 +9210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>77</v>
       </c>
@@ -9219,7 +9228,7 @@
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>77</v>
       </c>
@@ -9237,7 +9246,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>77</v>
       </c>
@@ -9255,7 +9264,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>78</v>
       </c>
@@ -9273,7 +9282,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>78</v>
       </c>
@@ -9291,7 +9300,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>78</v>
       </c>
@@ -9309,7 +9318,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>78</v>
       </c>
@@ -9329,7 +9338,7 @@
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>78</v>
       </c>
@@ -9349,7 +9358,7 @@
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>78</v>
       </c>
@@ -9367,7 +9376,7 @@
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>78</v>
       </c>
@@ -9385,7 +9394,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>79</v>
       </c>
@@ -9403,7 +9412,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>79</v>
       </c>
@@ -9421,7 +9430,7 @@
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>79</v>
       </c>
@@ -9439,7 +9448,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>79</v>
       </c>
@@ -9459,7 +9468,7 @@
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>79</v>
       </c>
@@ -9479,7 +9488,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>79</v>
       </c>
@@ -9497,7 +9506,7 @@
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>79</v>
       </c>
@@ -9515,7 +9524,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>80</v>
       </c>
@@ -9533,7 +9542,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>80</v>
       </c>
@@ -9551,7 +9560,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>80</v>
       </c>
@@ -9569,7 +9578,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>80</v>
       </c>
@@ -9589,7 +9598,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>80</v>
       </c>
@@ -9609,7 +9618,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>80</v>
       </c>
@@ -9627,7 +9636,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>80</v>
       </c>
@@ -9645,7 +9654,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>81</v>
       </c>
@@ -9663,7 +9672,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>81</v>
       </c>
@@ -9681,7 +9690,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>81</v>
       </c>
@@ -9699,7 +9708,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>81</v>
       </c>
@@ -9719,7 +9728,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>81</v>
       </c>
@@ -9739,7 +9748,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>81</v>
       </c>
@@ -9757,7 +9766,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>81</v>
       </c>
@@ -9775,7 +9784,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>82</v>
       </c>
@@ -9795,7 +9804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>82</v>
       </c>
@@ -9815,7 +9824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>82</v>
       </c>
@@ -9835,7 +9844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>82</v>
       </c>
@@ -9853,7 +9862,7 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>82</v>
       </c>
@@ -9871,7 +9880,7 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>82</v>
       </c>
@@ -9903,7 +9912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>82</v>
       </c>
@@ -9923,7 +9932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>83</v>
       </c>
@@ -9941,7 +9950,7 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>83</v>
       </c>
@@ -9973,7 +9982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>83</v>
       </c>
@@ -10005,7 +10014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>83</v>
       </c>
@@ -10037,7 +10046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>83</v>
       </c>
@@ -10055,7 +10064,7 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>83</v>
       </c>
@@ -10087,7 +10096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>83</v>
       </c>
@@ -10105,7 +10114,7 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>84</v>
       </c>
@@ -10123,7 +10132,7 @@
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>84</v>
       </c>
@@ -10155,7 +10164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>84</v>
       </c>
@@ -10187,7 +10196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>84</v>
       </c>
@@ -10205,7 +10214,7 @@
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>84</v>
       </c>
@@ -10223,7 +10232,7 @@
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>84</v>
       </c>
@@ -10241,7 +10250,7 @@
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>84</v>
       </c>
@@ -10259,7 +10268,7 @@
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>85</v>
       </c>
@@ -10291,7 +10300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>85</v>
       </c>
@@ -10309,7 +10318,7 @@
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>85</v>
       </c>
@@ -10327,7 +10336,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>85</v>
       </c>
@@ -10359,7 +10368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>85</v>
       </c>
@@ -10377,7 +10386,7 @@
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>85</v>
       </c>
@@ -10395,7 +10404,7 @@
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>85</v>
       </c>
@@ -10413,7 +10422,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>86</v>
       </c>
@@ -10445,7 +10454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>86</v>
       </c>
@@ -10463,7 +10472,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>86</v>
       </c>
@@ -10481,7 +10490,7 @@
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>86</v>
       </c>
@@ -10513,7 +10522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>86</v>
       </c>
@@ -10531,7 +10540,7 @@
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>86</v>
       </c>
@@ -10549,7 +10558,7 @@
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>86</v>
       </c>
@@ -10567,7 +10576,7 @@
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>87</v>
       </c>
@@ -10599,7 +10608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>87</v>
       </c>
@@ -10617,7 +10626,7 @@
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>87</v>
       </c>
@@ -10635,7 +10644,7 @@
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>87</v>
       </c>
@@ -10653,7 +10662,7 @@
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>87</v>
       </c>
@@ -10671,7 +10680,7 @@
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>87</v>
       </c>
@@ -10689,7 +10698,7 @@
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>87</v>
       </c>
@@ -10707,7 +10716,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>88</v>
       </c>
@@ -10739,7 +10748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>88</v>
       </c>
@@ -10759,7 +10768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>88</v>
       </c>
@@ -10779,7 +10788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>88</v>
       </c>
@@ -10799,7 +10808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>88</v>
       </c>
@@ -10819,7 +10828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>88</v>
       </c>
@@ -10851,7 +10860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>88</v>
       </c>
@@ -10871,7 +10880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>89</v>
       </c>
@@ -10903,7 +10912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>89</v>
       </c>
@@ -10921,7 +10930,7 @@
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>89</v>
       </c>
@@ -10939,7 +10948,7 @@
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>89</v>
       </c>
@@ -10959,7 +10968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>89</v>
       </c>
@@ -10979,7 +10988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>89</v>
       </c>
@@ -11011,7 +11020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>89</v>
       </c>
@@ -11029,7 +11038,7 @@
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>90</v>
       </c>
@@ -11047,7 +11056,7 @@
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>90</v>
       </c>
@@ -11065,7 +11074,7 @@
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>90</v>
       </c>
@@ -11083,7 +11092,7 @@
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>90</v>
       </c>
@@ -11103,7 +11112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>90</v>
       </c>
@@ -11123,7 +11132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>90</v>
       </c>
@@ -11155,7 +11164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>90</v>
       </c>
@@ -11173,7 +11182,7 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>91</v>
       </c>
@@ -11193,7 +11202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>91</v>
       </c>
@@ -11213,7 +11222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>91</v>
       </c>
@@ -11233,7 +11242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>91</v>
       </c>
@@ -11251,7 +11260,7 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>91</v>
       </c>
@@ -11269,7 +11278,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>91</v>
       </c>
@@ -11301,7 +11310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>91</v>
       </c>
@@ -11321,7 +11330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>92</v>
       </c>
@@ -11339,7 +11348,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>92</v>
       </c>
@@ -11357,7 +11366,7 @@
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>92</v>
       </c>
@@ -11375,7 +11384,7 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>92</v>
       </c>
@@ -11395,7 +11404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>92</v>
       </c>
@@ -11413,7 +11422,7 @@
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>92</v>
       </c>
@@ -11431,7 +11440,7 @@
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>92</v>
       </c>
@@ -11449,7 +11458,7 @@
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>93</v>
       </c>
@@ -11467,7 +11476,7 @@
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>93</v>
       </c>
@@ -11485,7 +11494,7 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>93</v>
       </c>
@@ -11503,7 +11512,7 @@
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>93</v>
       </c>
@@ -11523,7 +11532,7 @@
       </c>
       <c r="J523" s="1"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>93</v>
       </c>
@@ -11543,7 +11552,7 @@
       </c>
       <c r="J524" s="1"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>93</v>
       </c>
@@ -11561,7 +11570,7 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>93</v>
       </c>
@@ -11579,7 +11588,7 @@
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>94</v>
       </c>
@@ -11597,7 +11606,7 @@
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>94</v>
       </c>
@@ -11615,7 +11624,7 @@
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>94</v>
       </c>
@@ -11633,7 +11642,7 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>94</v>
       </c>
@@ -11653,7 +11662,7 @@
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>94</v>
       </c>
@@ -11673,7 +11682,7 @@
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>94</v>
       </c>
@@ -11691,7 +11700,7 @@
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>94</v>
       </c>
@@ -11709,7 +11718,7 @@
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>95</v>
       </c>
@@ -11727,7 +11736,7 @@
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>95</v>
       </c>
@@ -11745,7 +11754,7 @@
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>95</v>
       </c>
@@ -11763,7 +11772,7 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>95</v>
       </c>
@@ -11783,7 +11792,7 @@
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>95</v>
       </c>
@@ -11803,7 +11812,7 @@
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>95</v>
       </c>
@@ -11821,7 +11830,7 @@
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>95</v>
       </c>
@@ -11839,7 +11848,7 @@
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>96</v>
       </c>
@@ -11857,7 +11866,7 @@
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>96</v>
       </c>
@@ -11875,7 +11884,7 @@
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>96</v>
       </c>
@@ -11893,7 +11902,7 @@
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>96</v>
       </c>
@@ -11913,7 +11922,7 @@
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>96</v>
       </c>
@@ -11933,7 +11942,7 @@
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>96</v>
       </c>
@@ -11951,7 +11960,7 @@
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>96</v>
       </c>
@@ -11969,7 +11978,7 @@
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>97</v>
       </c>
@@ -11987,7 +11996,7 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>97</v>
       </c>
@@ -12019,7 +12028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>97</v>
       </c>
@@ -12051,7 +12060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>97</v>
       </c>
@@ -12083,7 +12092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>97</v>
       </c>
@@ -12101,7 +12110,7 @@
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>97</v>
       </c>
@@ -12133,7 +12142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>97</v>
       </c>
@@ -12151,7 +12160,7 @@
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>98</v>
       </c>
@@ -12169,7 +12178,7 @@
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>98</v>
       </c>
@@ -12201,7 +12210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>98</v>
       </c>
@@ -12233,7 +12242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>98</v>
       </c>
@@ -12251,7 +12260,7 @@
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>98</v>
       </c>
@@ -12269,7 +12278,7 @@
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>98</v>
       </c>
@@ -12287,7 +12296,7 @@
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>98</v>
       </c>
@@ -12305,7 +12314,7 @@
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>99</v>
       </c>
@@ -12337,7 +12346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>99</v>
       </c>
@@ -12355,7 +12364,7 @@
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>99</v>
       </c>
@@ -12373,7 +12382,7 @@
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>99</v>
       </c>
@@ -12391,7 +12400,7 @@
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>99</v>
       </c>
@@ -12409,7 +12418,7 @@
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>99</v>
       </c>
@@ -12427,7 +12436,7 @@
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>99</v>
       </c>
@@ -12445,7 +12454,7 @@
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>100</v>
       </c>
@@ -12463,7 +12472,7 @@
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>100</v>
       </c>
@@ -12481,7 +12490,7 @@
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>100</v>
       </c>
@@ -12499,7 +12508,7 @@
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>100</v>
       </c>
@@ -12531,7 +12540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>100</v>
       </c>
@@ -12551,7 +12560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>100</v>
       </c>
@@ -12569,7 +12578,7 @@
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>100</v>
       </c>
@@ -12587,7 +12596,7 @@
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>101</v>
       </c>
@@ -12607,7 +12616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>101</v>
       </c>
@@ -12627,7 +12636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>101</v>
       </c>
@@ -12647,7 +12656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>101</v>
       </c>
@@ -12667,7 +12676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>101</v>
       </c>
@@ -12687,7 +12696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>101</v>
       </c>
@@ -12707,7 +12716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>101</v>
       </c>
@@ -12727,7 +12736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>102</v>
       </c>
@@ -12745,7 +12754,7 @@
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>102</v>
       </c>
@@ -12763,7 +12772,7 @@
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>102</v>
       </c>
@@ -12781,7 +12790,7 @@
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>102</v>
       </c>
@@ -12801,7 +12810,7 @@
       </c>
       <c r="J586" s="1"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>102</v>
       </c>
@@ -12821,7 +12830,7 @@
       </c>
       <c r="J587" s="1"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>102</v>
       </c>
@@ -12839,7 +12848,7 @@
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>102</v>
       </c>
@@ -12857,7 +12866,7 @@
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>103</v>
       </c>
@@ -12875,7 +12884,7 @@
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>103</v>
       </c>
@@ -12893,7 +12902,7 @@
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>103</v>
       </c>
@@ -12911,7 +12920,7 @@
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>103</v>
       </c>
@@ -12931,7 +12940,7 @@
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>103</v>
       </c>
@@ -12951,7 +12960,7 @@
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>103</v>
       </c>
@@ -12969,7 +12978,7 @@
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>103</v>
       </c>
@@ -12987,7 +12996,7 @@
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>104</v>
       </c>
@@ -13005,7 +13014,7 @@
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>104</v>
       </c>
@@ -13023,7 +13032,7 @@
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>104</v>
       </c>
@@ -13041,7 +13050,7 @@
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>104</v>
       </c>
@@ -13061,7 +13070,7 @@
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>104</v>
       </c>
@@ -13081,7 +13090,7 @@
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>104</v>
       </c>
@@ -13099,7 +13108,7 @@
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>104</v>
       </c>
@@ -13117,7 +13126,7 @@
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>105</v>
       </c>
@@ -13135,7 +13144,7 @@
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>105</v>
       </c>
@@ -13153,7 +13162,7 @@
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>105</v>
       </c>
@@ -13171,7 +13180,7 @@
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>105</v>
       </c>
@@ -13191,7 +13200,7 @@
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>105</v>
       </c>
@@ -13211,7 +13220,7 @@
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>105</v>
       </c>
@@ -13229,7 +13238,7 @@
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>105</v>
       </c>
@@ -13247,7 +13256,7 @@
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>106</v>
       </c>
@@ -13265,7 +13274,7 @@
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>106</v>
       </c>
@@ -13283,7 +13292,7 @@
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>106</v>
       </c>
@@ -13301,7 +13310,7 @@
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>106</v>
       </c>
@@ -13333,7 +13342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>106</v>
       </c>
@@ -13353,7 +13362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>106</v>
       </c>
@@ -13371,7 +13380,7 @@
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>106</v>
       </c>
@@ -13490,10 +13499,10 @@
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
-      <c r="I622" s="1"/>
-      <c r="J622" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I622" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J622" s="1"/>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
@@ -13600,10 +13609,10 @@
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
-      <c r="I628" s="1"/>
-      <c r="J628" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I628" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J628" s="1"/>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
@@ -13620,10 +13629,10 @@
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
-      <c r="I629" s="1"/>
-      <c r="J629" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I629" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J629" s="1"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
@@ -13730,9 +13739,7 @@
       <c r="F635" s="1"/>
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
-      <c r="I635" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I635" s="1"/>
       <c r="J635" s="1"/>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
@@ -13750,9 +13757,7 @@
       <c r="F636" s="1"/>
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
-      <c r="I636" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I636" s="1"/>
       <c r="J636" s="1"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
@@ -14181,7 +14186,7 @@
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>113</v>
       </c>
@@ -14199,7 +14204,7 @@
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>113</v>
       </c>
@@ -14217,7 +14222,7 @@
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>113</v>
       </c>
@@ -14235,7 +14240,7 @@
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>113</v>
       </c>
@@ -14267,7 +14272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>113</v>
       </c>
@@ -14287,7 +14292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>113</v>
       </c>
@@ -14305,7 +14310,7 @@
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>113</v>
       </c>
@@ -14323,7 +14328,7 @@
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>160</v>
       </c>
@@ -14341,7 +14346,7 @@
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
         <v>160</v>
       </c>
@@ -14359,7 +14364,7 @@
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
         <v>160</v>
       </c>
@@ -14377,7 +14382,7 @@
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
         <v>160</v>
       </c>
@@ -14409,7 +14414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
         <v>160</v>
       </c>
@@ -14429,7 +14434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
         <v>160</v>
       </c>
@@ -14447,7 +14452,7 @@
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
         <v>160</v>
       </c>
@@ -14465,7 +14470,7 @@
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>114</v>
       </c>
@@ -14495,7 +14500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>115</v>
       </c>
@@ -14525,7 +14530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>116</v>
       </c>
@@ -14555,7 +14560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>117</v>
       </c>
@@ -14585,7 +14590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>118</v>
       </c>
@@ -14601,7 +14606,7 @@
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>119</v>
       </c>
@@ -14617,7 +14622,7 @@
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>120</v>
       </c>
@@ -14633,7 +14638,7 @@
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>121</v>
       </c>
@@ -14663,7 +14668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>122</v>
       </c>
@@ -14693,7 +14698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>123</v>
       </c>
@@ -14723,7 +14728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>124</v>
       </c>
@@ -14753,7 +14758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>125</v>
       </c>
@@ -14783,7 +14788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>126</v>
       </c>
@@ -14813,7 +14818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>127</v>
       </c>
@@ -14843,7 +14848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>128</v>
       </c>
@@ -14873,7 +14878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>129</v>
       </c>
@@ -14903,7 +14908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>130</v>
       </c>
@@ -14921,7 +14926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>131</v>
       </c>
@@ -14951,7 +14956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>132</v>
       </c>
@@ -14973,7 +14978,7 @@
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>133</v>
       </c>
@@ -15003,7 +15008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>134</v>
       </c>
@@ -15021,7 +15026,7 @@
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>135</v>
       </c>
@@ -15039,7 +15044,7 @@
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>136</v>
       </c>
@@ -15063,7 +15068,7 @@
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>137</v>
       </c>
@@ -15081,7 +15086,7 @@
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>138</v>
       </c>
@@ -15099,7 +15104,7 @@
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>139</v>
       </c>
@@ -15117,7 +15122,7 @@
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>140</v>
       </c>
@@ -15135,7 +15140,7 @@
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>141</v>
       </c>
@@ -15153,7 +15158,7 @@
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>142</v>
       </c>
@@ -15171,7 +15176,7 @@
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>143</v>
       </c>
@@ -15197,7 +15202,7 @@
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>144</v>
       </c>
@@ -15221,7 +15226,7 @@
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>145</v>
       </c>
@@ -15239,7 +15244,7 @@
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>146</v>
       </c>
@@ -15269,7 +15274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>147</v>
       </c>
@@ -15287,7 +15292,7 @@
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>148</v>
       </c>
@@ -15303,7 +15308,7 @@
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>149</v>
       </c>
@@ -15329,7 +15334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>150</v>
       </c>
@@ -15359,7 +15364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>151</v>
       </c>
@@ -15389,7 +15394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>152</v>
       </c>
@@ -15419,7 +15424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>153</v>
       </c>
@@ -15449,7 +15454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>154</v>
       </c>
@@ -15479,7 +15484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4" t="s">
         <v>155</v>
       </c>
@@ -15499,7 +15504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
         <v>155</v>
       </c>
@@ -15519,7 +15524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>156</v>
       </c>
@@ -15539,7 +15544,7 @@
       </c>
       <c r="J717" s="1"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
         <v>156</v>
       </c>
@@ -15559,7 +15564,7 @@
       </c>
       <c r="J718" s="1"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4" t="s">
         <v>157</v>
       </c>
@@ -15579,7 +15584,7 @@
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
         <v>157</v>
       </c>
@@ -15599,7 +15604,7 @@
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
         <v>158</v>
       </c>
@@ -15619,7 +15624,7 @@
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
         <v>158</v>
       </c>
@@ -15639,7 +15644,7 @@
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
         <v>159</v>
       </c>
@@ -15653,7 +15658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
         <v>159</v>
       </c>
@@ -15667,7 +15672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
         <v>161</v>
       </c>
@@ -15681,7 +15686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
         <v>161</v>
       </c>
@@ -15695,7 +15700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4" t="s">
         <v>162</v>
       </c>
@@ -15709,7 +15714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
         <v>162</v>
       </c>
@@ -15723,7 +15728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
         <v>163</v>
       </c>
@@ -15737,7 +15742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
         <v>163</v>
       </c>
@@ -15751,7 +15756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
         <v>164</v>
       </c>
@@ -15765,7 +15770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
         <v>164</v>
       </c>
@@ -15779,7 +15784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4" t="s">
         <v>165</v>
       </c>
@@ -15793,7 +15798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
         <v>165</v>
       </c>
@@ -15807,7 +15812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4" t="s">
         <v>166</v>
       </c>
@@ -15821,7 +15826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4" t="s">
         <v>166</v>
       </c>
@@ -15835,7 +15840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4" t="s">
         <v>167</v>
       </c>
@@ -15849,7 +15854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4" t="s">
         <v>167</v>
       </c>
@@ -15863,7 +15868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4" t="s">
         <v>168</v>
       </c>
@@ -15877,7 +15882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
         <v>168</v>
       </c>
@@ -15891,7 +15896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4" t="s">
         <v>169</v>
       </c>
@@ -15905,7 +15910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
         <v>169</v>
       </c>
@@ -15919,7 +15924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4" t="s">
         <v>170</v>
       </c>
@@ -15933,7 +15938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
         <v>170</v>
       </c>
@@ -15947,7 +15952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
         <v>171</v>
       </c>
@@ -15961,7 +15966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
         <v>171</v>
       </c>
@@ -15975,7 +15980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4" t="s">
         <v>172</v>
       </c>
@@ -15989,7 +15994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
         <v>172</v>
       </c>
@@ -16003,7 +16008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4" t="s">
         <v>172</v>
       </c>
@@ -16017,8 +16022,367 @@
         <v>12</v>
       </c>
     </row>
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A750" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J750" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A751" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J751" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A752" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J752" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A753" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J753" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A754" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J754" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A755" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J755" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A756" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J756" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A757" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J757" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A758" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J758" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A759" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J759" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A760" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J760" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A761" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J761" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A762" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J762" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A763" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J763" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A764" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C764" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E764" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F764" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G764" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H764" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I764" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J764" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A765" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C765" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J765" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A766" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C766" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J766" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A767" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C767" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J767" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A768" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C768" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J768" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A769" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C769" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J769" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A770" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C770" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J770" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J744" xr:uid="{602E33C0-D28A-4C1F-AD55-65FFB612205A}"/>
+  <autoFilter ref="A1:J749" xr:uid="{602E33C0-D28A-4C1F-AD55-65FFB612205A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="cedulageneralpras"/>
+        <filter val="cedulageneralprasanalista"/>
+        <filter val="cedulageneralprasautorizacion"/>
+        <filter val="cedulageneralprasrevision"/>
+        <filter val="cedulageneralprasrevision01"/>
+        <filter val="cedulageneralprasvalidacion"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A745" r:id="rId1" display="http://localhost:8081/GITComponentes/Seguimiento/public/permiso/1389356127/edit" xr:uid="{86413FF3-BEF1-48D1-8F49-4C4BC21E7EED}"/>
     <hyperlink ref="A746" r:id="rId2" display="http://localhost:8081/GITComponentes/Seguimiento/public/permiso/1389356127/edit" xr:uid="{D960DF85-261F-42FC-868D-E993060AA160}"/>

--- a/database/seeders/ACCESOS.xlsx
+++ b/database/seeders/ACCESOS.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20415"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\servidor\Seguimiento\database\seeders\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9C4FA-58A4-4F98-B835-6A5A5FA7E6FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Hoja1!$A$1:$J$749</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="181">
   <si>
     <t>permiso</t>
   </si>
@@ -542,14 +548,31 @@
   </si>
   <si>
     <t>turnoarchivo</t>
+  </si>
+  <si>
+    <t>staff_juridico</t>
+  </si>
+  <si>
+    <t>consulta_administrador</t>
+  </si>
+  <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>asignacionunidadadministrativa</t>
+  </si>
+  <si>
+    <t>asignacionunidadadministrativa2022</t>
+  </si>
+  <si>
+    <t>asignacionunidadadministrativa2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +591,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF181C32"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -597,32 +627,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -633,10 +663,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -674,71 +704,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,7 +796,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -789,11 +819,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -802,13 +832,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -818,7 +848,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -827,7 +857,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -836,7 +866,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -844,10 +874,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -912,29 +942,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J772"/>
+  <dimension ref="A1:L781"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L777" sqref="L777"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="66.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="41.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="66.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,8 +999,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="K1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,7 +1024,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1042,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1060,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1078,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1096,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1114,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1132,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1150,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1168,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1186,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1204,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1222,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1240,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1258,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1236,7 +1276,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1254,7 +1294,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1272,7 +1312,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1290,7 +1330,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1348,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1366,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1384,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1402,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1380,7 +1420,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1398,7 +1438,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1456,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1474,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1452,7 +1492,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1510,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1501,8 +1541,14 @@
       <c r="J30" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="K30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1521,8 +1567,11 @@
       <c r="J31" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="K31" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1541,8 +1590,11 @@
       <c r="J32" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="K32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -1561,8 +1613,11 @@
       <c r="J33" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="K33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1581,8 +1636,11 @@
       <c r="J34" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="K34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1613,8 +1671,14 @@
       <c r="J35" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="K35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1633,8 +1697,11 @@
       <c r="J36" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="K36" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,8 +1732,14 @@
       <c r="J37" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="K37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1685,8 +1758,11 @@
       <c r="J38" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="K38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -1705,8 +1781,11 @@
       <c r="J39" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="K39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -1726,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1777,8 +1856,11 @@
       <c r="J42" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1798,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1898,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1834,7 +1916,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1934,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1954,7 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1892,7 +1974,7 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -1910,7 +1992,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
@@ -1928,7 +2010,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +2028,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,7 +2046,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -1982,7 +2064,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2084,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -2022,7 +2104,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -2040,7 +2122,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -2058,7 +2140,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2158,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2176,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -2112,7 +2194,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
@@ -2132,7 +2214,7 @@
       </c>
       <c r="J61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -2152,7 +2234,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -2172,7 +2254,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -2190,7 +2272,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>26</v>
       </c>
@@ -2208,7 +2290,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>26</v>
       </c>
@@ -2226,7 +2308,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>26</v>
       </c>
@@ -2244,7 +2326,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,7 +2346,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
@@ -2284,7 +2366,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>26</v>
       </c>
@@ -2304,7 +2386,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -2322,7 +2404,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -2340,7 +2422,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>27</v>
       </c>
@@ -2358,7 +2440,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
@@ -2376,7 +2458,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
@@ -2396,7 +2478,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
@@ -2416,7 +2498,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -2434,7 +2516,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -2452,7 +2534,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2552,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -2488,7 +2570,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2506,7 +2588,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>28</v>
       </c>
@@ -2526,7 +2608,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,7 +2628,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
@@ -2564,7 +2646,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -2582,7 +2664,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -2602,7 +2684,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,7 +2702,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
@@ -2638,7 +2720,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -2658,7 +2740,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -2678,7 +2760,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -2696,7 +2778,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
@@ -2714,7 +2796,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -2739,8 +2821,11 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="L93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -2758,7 +2843,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -2776,7 +2861,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -2798,7 +2883,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -2818,7 +2903,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>30</v>
       </c>
@@ -2836,7 +2921,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>30</v>
       </c>
@@ -2854,7 +2939,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -2881,8 +2966,11 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="L100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -2900,7 +2988,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>31</v>
       </c>
@@ -2918,7 +3006,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>31</v>
       </c>
@@ -2938,7 +3026,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>31</v>
       </c>
@@ -2958,7 +3046,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>31</v>
       </c>
@@ -2976,7 +3064,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>31</v>
       </c>
@@ -2994,7 +3082,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -3012,7 +3100,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -3030,7 +3118,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3136,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -3068,7 +3156,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -3088,7 +3176,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>32</v>
       </c>
@@ -3106,7 +3194,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>32</v>
       </c>
@@ -3124,7 +3212,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -3155,8 +3243,11 @@
       <c r="J114" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="L114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -3174,7 +3265,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -3192,7 +3283,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
@@ -3223,8 +3314,11 @@
       <c r="J117" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="L117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>33</v>
       </c>
@@ -3242,7 +3336,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>33</v>
       </c>
@@ -3273,8 +3367,11 @@
       <c r="J119" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="L119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>33</v>
       </c>
@@ -3292,7 +3389,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
@@ -3323,8 +3420,11 @@
       <c r="J121" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="L121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
@@ -3342,7 +3442,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -3360,7 +3460,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>34</v>
       </c>
@@ -3378,7 +3478,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>34</v>
       </c>
@@ -3396,7 +3496,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>34</v>
       </c>
@@ -3414,7 +3514,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>34</v>
       </c>
@@ -3432,7 +3532,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>35</v>
       </c>
@@ -3450,7 +3550,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3568,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>35</v>
       </c>
@@ -3486,7 +3586,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>35</v>
       </c>
@@ -3504,7 +3604,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>35</v>
       </c>
@@ -3522,7 +3622,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>35</v>
       </c>
@@ -3553,8 +3653,11 @@
       <c r="J133" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="L133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>35</v>
       </c>
@@ -3572,7 +3675,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>36</v>
       </c>
@@ -3603,8 +3706,11 @@
       <c r="J135" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="L135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>36</v>
       </c>
@@ -3624,7 +3730,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>36</v>
       </c>
@@ -3644,7 +3750,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>36</v>
       </c>
@@ -3664,7 +3770,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>36</v>
       </c>
@@ -3684,7 +3790,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>36</v>
       </c>
@@ -3702,7 +3808,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>36</v>
       </c>
@@ -3720,7 +3826,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>37</v>
       </c>
@@ -3738,7 +3844,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>37</v>
       </c>
@@ -3756,7 +3862,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>37</v>
       </c>
@@ -3774,7 +3880,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>37</v>
       </c>
@@ -3794,7 +3900,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -3814,7 +3920,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
@@ -3832,7 +3938,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>37</v>
       </c>
@@ -3850,7 +3956,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>38</v>
       </c>
@@ -3868,7 +3974,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +3992,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>38</v>
       </c>
@@ -3904,7 +4010,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>38</v>
       </c>
@@ -3924,7 +4030,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>38</v>
       </c>
@@ -3944,7 +4050,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>38</v>
       </c>
@@ -3962,7 +4068,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>38</v>
       </c>
@@ -3980,7 +4086,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>39</v>
       </c>
@@ -3998,7 +4104,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>39</v>
       </c>
@@ -4016,7 +4122,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>39</v>
       </c>
@@ -4034,7 +4140,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>39</v>
       </c>
@@ -4054,7 +4160,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>39</v>
       </c>
@@ -4074,7 +4180,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>39</v>
       </c>
@@ -4105,8 +4211,11 @@
       <c r="J161" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="L161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>39</v>
       </c>
@@ -4124,7 +4233,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>40</v>
       </c>
@@ -4142,7 +4251,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
@@ -4160,7 +4269,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>40</v>
       </c>
@@ -4178,7 +4287,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
@@ -4198,7 +4307,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>40</v>
       </c>
@@ -4218,7 +4327,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>40</v>
       </c>
@@ -4236,7 +4345,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>40</v>
       </c>
@@ -4254,7 +4363,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>41</v>
       </c>
@@ -4272,7 +4381,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>41</v>
       </c>
@@ -4290,7 +4399,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>41</v>
       </c>
@@ -4308,7 +4417,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>41</v>
       </c>
@@ -4326,7 +4435,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>41</v>
       </c>
@@ -4344,7 +4453,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>41</v>
       </c>
@@ -4375,8 +4484,11 @@
       <c r="J175" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="L175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>41</v>
       </c>
@@ -4394,7 +4506,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>42</v>
       </c>
@@ -4425,8 +4537,11 @@
       <c r="J177" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+      <c r="L177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>42</v>
       </c>
@@ -4444,7 +4559,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>42</v>
       </c>
@@ -4462,7 +4577,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>42</v>
       </c>
@@ -4482,7 +4597,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>42</v>
       </c>
@@ -4502,7 +4617,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>42</v>
       </c>
@@ -4533,8 +4648,11 @@
       <c r="J182" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="L182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>42</v>
       </c>
@@ -4552,7 +4670,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>43</v>
       </c>
@@ -4581,8 +4699,11 @@
         <v>12</v>
       </c>
       <c r="J184" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="L184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>43</v>
       </c>
@@ -4600,7 +4721,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>43</v>
       </c>
@@ -4618,7 +4739,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>43</v>
       </c>
@@ -4647,8 +4768,11 @@
         <v>12</v>
       </c>
       <c r="J187" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="L187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>43</v>
       </c>
@@ -4666,7 +4790,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>43</v>
       </c>
@@ -4684,7 +4808,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>43</v>
       </c>
@@ -4702,7 +4826,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>44</v>
       </c>
@@ -4731,8 +4855,11 @@
         <v>12</v>
       </c>
       <c r="J191" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="L191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>44</v>
       </c>
@@ -4750,7 +4877,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>44</v>
       </c>
@@ -4768,7 +4895,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>44</v>
       </c>
@@ -4797,8 +4924,11 @@
         <v>12</v>
       </c>
       <c r="J194" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="L194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>44</v>
       </c>
@@ -4816,7 +4946,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>44</v>
       </c>
@@ -4834,7 +4964,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>44</v>
       </c>
@@ -4852,7 +4982,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>45</v>
       </c>
@@ -4881,8 +5011,11 @@
         <v>12</v>
       </c>
       <c r="J198" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="L198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>45</v>
       </c>
@@ -4902,7 +5035,7 @@
       </c>
       <c r="J199" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>45</v>
       </c>
@@ -4922,7 +5055,7 @@
       </c>
       <c r="J200" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>45</v>
       </c>
@@ -4942,7 +5075,7 @@
       </c>
       <c r="J201" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>45</v>
       </c>
@@ -4962,7 +5095,7 @@
       </c>
       <c r="J202" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>45</v>
       </c>
@@ -4980,7 +5113,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>45</v>
       </c>
@@ -4998,7 +5131,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>46</v>
       </c>
@@ -5016,7 +5149,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>46</v>
       </c>
@@ -5034,7 +5167,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+    <row r="207" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>46</v>
       </c>
@@ -5052,7 +5185,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+    <row r="208" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>46</v>
       </c>
@@ -5072,7 +5205,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>46</v>
       </c>
@@ -5092,7 +5225,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>46</v>
       </c>
@@ -5110,7 +5243,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>46</v>
       </c>
@@ -5128,7 +5261,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>47</v>
       </c>
@@ -5146,7 +5279,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>47</v>
       </c>
@@ -5164,7 +5297,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+    <row r="214" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>47</v>
       </c>
@@ -5182,7 +5315,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+    <row r="215" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>47</v>
       </c>
@@ -5202,7 +5335,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row r="216" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>47</v>
       </c>
@@ -5222,7 +5355,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row r="217" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>47</v>
       </c>
@@ -5240,7 +5373,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row r="218" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>47</v>
       </c>
@@ -5258,7 +5391,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+    <row r="219" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>48</v>
       </c>
@@ -5276,7 +5409,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+    <row r="220" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>48</v>
       </c>
@@ -5294,7 +5427,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+    <row r="221" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>48</v>
       </c>
@@ -5312,7 +5445,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>48</v>
       </c>
@@ -5332,7 +5465,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>48</v>
       </c>
@@ -5352,7 +5485,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+    <row r="224" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>48</v>
       </c>
@@ -5370,7 +5503,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+    <row r="225" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>48</v>
       </c>
@@ -5388,7 +5521,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>49</v>
       </c>
@@ -5406,7 +5539,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+    <row r="227" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>49</v>
       </c>
@@ -5424,7 +5557,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row r="228" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>49</v>
       </c>
@@ -5442,7 +5575,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>49</v>
       </c>
@@ -5462,7 +5595,7 @@
       </c>
       <c r="J229" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+    <row r="230" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>49</v>
       </c>
@@ -5482,7 +5615,7 @@
       </c>
       <c r="J230" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>49</v>
       </c>
@@ -5511,8 +5644,11 @@
         <v>12</v>
       </c>
       <c r="J231" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+      <c r="L231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>49</v>
       </c>
@@ -5530,7 +5666,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+    <row r="233" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
@@ -5548,7 +5684,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>50</v>
       </c>
@@ -5566,7 +5702,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>50</v>
       </c>
@@ -5584,7 +5720,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>50</v>
       </c>
@@ -5604,7 +5740,7 @@
       </c>
       <c r="J236" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+    <row r="237" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>50</v>
       </c>
@@ -5624,7 +5760,7 @@
       </c>
       <c r="J237" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+    <row r="238" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>50</v>
       </c>
@@ -5655,8 +5791,11 @@
       <c r="J238" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+      <c r="L238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
@@ -5674,7 +5813,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+    <row r="240" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>51</v>
       </c>
@@ -5692,7 +5831,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+    <row r="241" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>51</v>
       </c>
@@ -5710,7 +5849,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+    <row r="242" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>51</v>
       </c>
@@ -5728,7 +5867,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+    <row r="243" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>51</v>
       </c>
@@ -5748,7 +5887,7 @@
       </c>
       <c r="J243" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+    <row r="244" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>51</v>
       </c>
@@ -5768,7 +5907,7 @@
       </c>
       <c r="J244" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+    <row r="245" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>51</v>
       </c>
@@ -5799,8 +5938,11 @@
       <c r="J245" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+      <c r="L245" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>51</v>
       </c>
@@ -5818,7 +5960,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+    <row r="247" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>52</v>
       </c>
@@ -5849,8 +5991,11 @@
       <c r="J247" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="L247" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>52</v>
       </c>
@@ -5868,7 +6013,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+    <row r="249" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>52</v>
       </c>
@@ -5886,7 +6031,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+    <row r="250" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>52</v>
       </c>
@@ -5917,8 +6062,11 @@
       <c r="J250" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+      <c r="L250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>52</v>
       </c>
@@ -5936,7 +6084,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+    <row r="252" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>52</v>
       </c>
@@ -5954,7 +6102,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+    <row r="253" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>52</v>
       </c>
@@ -5972,7 +6120,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+    <row r="254" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>53</v>
       </c>
@@ -6003,8 +6151,11 @@
       <c r="J254" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+      <c r="L254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>53</v>
       </c>
@@ -6022,7 +6173,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+    <row r="256" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>53</v>
       </c>
@@ -6040,7 +6191,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+    <row r="257" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>53</v>
       </c>
@@ -6071,8 +6222,11 @@
       <c r="J257" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+      <c r="L257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>53</v>
       </c>
@@ -6090,7 +6244,7 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+    <row r="259" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>53</v>
       </c>
@@ -6108,7 +6262,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+    <row r="260" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>53</v>
       </c>
@@ -6126,7 +6280,7 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+    <row r="261" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>54</v>
       </c>
@@ -6157,8 +6311,11 @@
       <c r="J261" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="L261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>54</v>
       </c>
@@ -6178,7 +6335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+    <row r="263" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>54</v>
       </c>
@@ -6198,7 +6355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+    <row r="264" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>54</v>
       </c>
@@ -6218,7 +6375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+    <row r="265" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>54</v>
       </c>
@@ -6238,7 +6395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+    <row r="266" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>54</v>
       </c>
@@ -6256,7 +6413,7 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+    <row r="267" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>54</v>
       </c>
@@ -6274,7 +6431,7 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+    <row r="268" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>55</v>
       </c>
@@ -6292,7 +6449,7 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+    <row r="269" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>55</v>
       </c>
@@ -6310,7 +6467,7 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+    <row r="270" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>55</v>
       </c>
@@ -6328,7 +6485,7 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+    <row r="271" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>55</v>
       </c>
@@ -6348,7 +6505,7 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+    <row r="272" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>55</v>
       </c>
@@ -6368,7 +6525,7 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+    <row r="273" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>55</v>
       </c>
@@ -6396,9 +6553,14 @@
       <c r="I273" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J273" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="K273" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
@@ -6416,7 +6578,7 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+    <row r="275" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>56</v>
       </c>
@@ -6436,7 +6598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+    <row r="276" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>56</v>
       </c>
@@ -6456,7 +6618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+    <row r="277" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>56</v>
       </c>
@@ -6474,7 +6636,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+    <row r="278" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>56</v>
       </c>
@@ -6492,7 +6654,7 @@
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
+    <row r="279" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>56</v>
       </c>
@@ -6512,7 +6674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+    <row r="280" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>56</v>
       </c>
@@ -6532,7 +6694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
+    <row r="281" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>56</v>
       </c>
@@ -6560,7 +6722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
+    <row r="282" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>57</v>
       </c>
@@ -6580,7 +6742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+    <row r="283" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>57</v>
       </c>
@@ -6600,7 +6762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
+    <row r="284" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>57</v>
       </c>
@@ -6620,7 +6782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
+    <row r="285" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>57</v>
       </c>
@@ -6640,7 +6802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
+    <row r="286" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>57</v>
       </c>
@@ -6660,7 +6822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
+    <row r="287" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>57</v>
       </c>
@@ -6691,8 +6853,11 @@
       <c r="J287" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+      <c r="L287" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>57</v>
       </c>
@@ -6712,7 +6877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+    <row r="289" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>58</v>
       </c>
@@ -6730,7 +6895,7 @@
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+    <row r="290" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>58</v>
       </c>
@@ -6748,7 +6913,7 @@
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+    <row r="291" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>58</v>
       </c>
@@ -6766,7 +6931,7 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+    <row r="292" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>58</v>
       </c>
@@ -6786,7 +6951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+    <row r="293" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>58</v>
       </c>
@@ -6806,7 +6971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
+    <row r="294" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>58</v>
       </c>
@@ -6834,7 +6999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
+    <row r="295" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>58</v>
       </c>
@@ -6852,7 +7017,7 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+    <row r="296" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>59</v>
       </c>
@@ -6872,7 +7037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+    <row r="297" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>59</v>
       </c>
@@ -6892,7 +7057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+    <row r="298" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>59</v>
       </c>
@@ -6912,7 +7077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+    <row r="299" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>59</v>
       </c>
@@ -6930,7 +7095,7 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+    <row r="300" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>59</v>
       </c>
@@ -6948,7 +7113,7 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+    <row r="301" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>59</v>
       </c>
@@ -6979,8 +7144,11 @@
       <c r="J301" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
+      <c r="L301" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>59</v>
       </c>
@@ -7000,7 +7168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
+    <row r="303" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>60</v>
       </c>
@@ -7018,7 +7186,7 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
+    <row r="304" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>60</v>
       </c>
@@ -7036,7 +7204,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
+    <row r="305" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>60</v>
       </c>
@@ -7054,7 +7222,7 @@
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+    <row r="306" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>60</v>
       </c>
@@ -7074,7 +7242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+    <row r="307" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>60</v>
       </c>
@@ -7092,7 +7260,7 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
+    <row r="308" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>60</v>
       </c>
@@ -7110,7 +7278,7 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+    <row r="309" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>60</v>
       </c>
@@ -7128,7 +7296,7 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
+    <row r="310" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>61</v>
       </c>
@@ -7146,7 +7314,7 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
+    <row r="311" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>61</v>
       </c>
@@ -7164,7 +7332,7 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
+    <row r="312" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>61</v>
       </c>
@@ -7182,7 +7350,7 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
+    <row r="313" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>61</v>
       </c>
@@ -7202,7 +7370,7 @@
       </c>
       <c r="J313" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+    <row r="314" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>61</v>
       </c>
@@ -7222,7 +7390,7 @@
       </c>
       <c r="J314" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
+    <row r="315" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>61</v>
       </c>
@@ -7240,7 +7408,7 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
+    <row r="316" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>61</v>
       </c>
@@ -7258,7 +7426,7 @@
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
+    <row r="317" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>62</v>
       </c>
@@ -7276,7 +7444,7 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
+    <row r="318" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>62</v>
       </c>
@@ -7294,7 +7462,7 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
+    <row r="319" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>62</v>
       </c>
@@ -7312,7 +7480,7 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
+    <row r="320" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>62</v>
       </c>
@@ -7332,7 +7500,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+    <row r="321" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>62</v>
       </c>
@@ -7352,7 +7520,7 @@
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
+    <row r="322" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>62</v>
       </c>
@@ -7370,7 +7538,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
+    <row r="323" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>62</v>
       </c>
@@ -7388,7 +7556,7 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
+    <row r="324" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>63</v>
       </c>
@@ -7406,7 +7574,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
+    <row r="325" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>63</v>
       </c>
@@ -7424,7 +7592,7 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
+    <row r="326" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>63</v>
       </c>
@@ -7442,7 +7610,7 @@
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
+    <row r="327" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>63</v>
       </c>
@@ -7462,7 +7630,7 @@
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
+    <row r="328" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>63</v>
       </c>
@@ -7482,7 +7650,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
+    <row r="329" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>63</v>
       </c>
@@ -7500,7 +7668,7 @@
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
+    <row r="330" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>63</v>
       </c>
@@ -7518,7 +7686,7 @@
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
+    <row r="331" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>65</v>
       </c>
@@ -7536,7 +7704,7 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
+    <row r="332" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>65</v>
       </c>
@@ -7554,7 +7722,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
+    <row r="333" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>65</v>
       </c>
@@ -7572,7 +7740,7 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
+    <row r="334" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>65</v>
       </c>
@@ -7592,7 +7760,7 @@
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
+    <row r="335" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>65</v>
       </c>
@@ -7612,7 +7780,7 @@
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
+    <row r="336" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>65</v>
       </c>
@@ -7630,7 +7798,7 @@
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
+    <row r="337" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>65</v>
       </c>
@@ -7648,7 +7816,7 @@
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
+    <row r="338" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>66</v>
       </c>
@@ -7666,7 +7834,7 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
+    <row r="339" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>66</v>
       </c>
@@ -7684,7 +7852,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
+    <row r="340" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>66</v>
       </c>
@@ -7704,7 +7872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
+    <row r="341" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>66</v>
       </c>
@@ -7722,7 +7890,7 @@
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
+    <row r="342" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>66</v>
       </c>
@@ -7740,7 +7908,7 @@
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
+    <row r="343" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>66</v>
       </c>
@@ -7758,7 +7926,7 @@
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
+    <row r="344" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>66</v>
       </c>
@@ -7776,7 +7944,7 @@
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
+    <row r="345" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>67</v>
       </c>
@@ -7794,7 +7962,7 @@
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
+    <row r="346" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>67</v>
       </c>
@@ -7820,7 +7988,7 @@
       </c>
       <c r="J346" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
+    <row r="347" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>67</v>
       </c>
@@ -7846,7 +8014,7 @@
       </c>
       <c r="J347" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
+    <row r="348" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>67</v>
       </c>
@@ -7866,7 +8034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
+    <row r="349" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>67</v>
       </c>
@@ -7884,7 +8052,7 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
+    <row r="350" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>67</v>
       </c>
@@ -7910,7 +8078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
+    <row r="351" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>67</v>
       </c>
@@ -7928,7 +8096,7 @@
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
+    <row r="352" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>68</v>
       </c>
@@ -7946,7 +8114,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
+    <row r="353" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>68</v>
       </c>
@@ -7964,7 +8132,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
+    <row r="354" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>68</v>
       </c>
@@ -7984,7 +8152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
+    <row r="355" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>68</v>
       </c>
@@ -8004,7 +8172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
+    <row r="356" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>68</v>
       </c>
@@ -8022,7 +8190,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
+    <row r="357" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>68</v>
       </c>
@@ -8040,7 +8208,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
+    <row r="358" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>68</v>
       </c>
@@ -8058,7 +8226,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
+    <row r="359" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>69</v>
       </c>
@@ -8089,8 +8257,11 @@
       <c r="J359" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
+      <c r="L359" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>69</v>
       </c>
@@ -8108,7 +8279,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
+    <row r="361" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>69</v>
       </c>
@@ -8126,7 +8297,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
+    <row r="362" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>69</v>
       </c>
@@ -8157,8 +8328,11 @@
       <c r="J362" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
+      <c r="L362" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>69</v>
       </c>
@@ -8176,7 +8350,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
+    <row r="364" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>69</v>
       </c>
@@ -8194,7 +8368,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
+    <row r="365" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>69</v>
       </c>
@@ -8212,7 +8386,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
+    <row r="366" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>70</v>
       </c>
@@ -8243,8 +8417,11 @@
       <c r="J366" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
+      <c r="L366" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>70</v>
       </c>
@@ -8262,7 +8439,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
+    <row r="368" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>70</v>
       </c>
@@ -8280,7 +8457,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
+    <row r="369" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>70</v>
       </c>
@@ -8311,8 +8488,11 @@
       <c r="J369" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
+      <c r="L369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>70</v>
       </c>
@@ -8330,7 +8510,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
+    <row r="371" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>70</v>
       </c>
@@ -8348,7 +8528,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
+    <row r="372" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>70</v>
       </c>
@@ -8366,7 +8546,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
+    <row r="373" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>71</v>
       </c>
@@ -8397,8 +8577,11 @@
       <c r="J373" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
+      <c r="L373" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>71</v>
       </c>
@@ -8416,7 +8599,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
+    <row r="375" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>71</v>
       </c>
@@ -8434,7 +8617,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
+    <row r="376" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>71</v>
       </c>
@@ -8465,8 +8648,11 @@
       <c r="J376" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
+      <c r="L376" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>71</v>
       </c>
@@ -8484,7 +8670,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
+    <row r="378" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>71</v>
       </c>
@@ -8502,7 +8688,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
+    <row r="379" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>71</v>
       </c>
@@ -8520,7 +8706,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
+    <row r="380" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>72</v>
       </c>
@@ -8551,8 +8737,11 @@
       <c r="J380" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
+      <c r="L380" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>72</v>
       </c>
@@ -8570,7 +8759,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
+    <row r="382" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>72</v>
       </c>
@@ -8588,7 +8777,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
+    <row r="383" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>72</v>
       </c>
@@ -8606,7 +8795,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
+    <row r="384" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>72</v>
       </c>
@@ -8624,7 +8813,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
+    <row r="385" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>72</v>
       </c>
@@ -8642,7 +8831,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
+    <row r="386" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>72</v>
       </c>
@@ -8660,7 +8849,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
+    <row r="387" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>73</v>
       </c>
@@ -8691,8 +8880,11 @@
       <c r="J387" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
+      <c r="L387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>73</v>
       </c>
@@ -8712,7 +8904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
+    <row r="389" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>73</v>
       </c>
@@ -8732,7 +8924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
+    <row r="390" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>73</v>
       </c>
@@ -8752,7 +8944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
+    <row r="391" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>73</v>
       </c>
@@ -8772,7 +8964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
+    <row r="392" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>73</v>
       </c>
@@ -8803,8 +8995,11 @@
       <c r="J392" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
+      <c r="L392" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>73</v>
       </c>
@@ -8824,7 +9019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
+    <row r="394" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>74</v>
       </c>
@@ -8855,8 +9050,11 @@
       <c r="J394" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
+      <c r="L394" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>74</v>
       </c>
@@ -8876,7 +9074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
+    <row r="396" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>74</v>
       </c>
@@ -8896,7 +9094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
+    <row r="397" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>74</v>
       </c>
@@ -8916,7 +9114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
+    <row r="398" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>74</v>
       </c>
@@ -8936,7 +9134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
+    <row r="399" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>74</v>
       </c>
@@ -8967,8 +9165,11 @@
       <c r="J399" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
+      <c r="L399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>74</v>
       </c>
@@ -8988,7 +9189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
+    <row r="401" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>75</v>
       </c>
@@ -9006,7 +9207,7 @@
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
+    <row r="402" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>75</v>
       </c>
@@ -9024,7 +9225,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
+    <row r="403" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>75</v>
       </c>
@@ -9042,7 +9243,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
+    <row r="404" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>75</v>
       </c>
@@ -9062,7 +9263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
+    <row r="405" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>75</v>
       </c>
@@ -9082,7 +9283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
+    <row r="406" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>75</v>
       </c>
@@ -9113,8 +9314,11 @@
       <c r="J406" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
+      <c r="L406" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>75</v>
       </c>
@@ -9132,7 +9336,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
+    <row r="408" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>76</v>
       </c>
@@ -9150,7 +9354,7 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
+    <row r="409" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>76</v>
       </c>
@@ -9168,7 +9372,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
+    <row r="410" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>76</v>
       </c>
@@ -9186,7 +9390,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
+    <row r="411" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>76</v>
       </c>
@@ -9206,7 +9410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
+    <row r="412" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>76</v>
       </c>
@@ -9224,7 +9428,7 @@
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
+    <row r="413" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>76</v>
       </c>
@@ -9242,7 +9446,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
+    <row r="414" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>76</v>
       </c>
@@ -9260,7 +9464,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
+    <row r="415" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>77</v>
       </c>
@@ -9278,7 +9482,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
+    <row r="416" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>77</v>
       </c>
@@ -9296,7 +9500,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
+    <row r="417" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>77</v>
       </c>
@@ -9314,7 +9518,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
+    <row r="418" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>77</v>
       </c>
@@ -9334,7 +9538,7 @@
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
+    <row r="419" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>77</v>
       </c>
@@ -9354,7 +9558,7 @@
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
+    <row r="420" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>77</v>
       </c>
@@ -9372,7 +9576,7 @@
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
+    <row r="421" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>77</v>
       </c>
@@ -9390,7 +9594,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
+    <row r="422" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>78</v>
       </c>
@@ -9408,7 +9612,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
+    <row r="423" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>78</v>
       </c>
@@ -9426,7 +9630,7 @@
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
+    <row r="424" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>78</v>
       </c>
@@ -9444,7 +9648,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
+    <row r="425" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>78</v>
       </c>
@@ -9464,7 +9668,7 @@
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
+    <row r="426" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>78</v>
       </c>
@@ -9484,7 +9688,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
+    <row r="427" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>78</v>
       </c>
@@ -9502,7 +9706,7 @@
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
+    <row r="428" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>78</v>
       </c>
@@ -9520,7 +9724,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
+    <row r="429" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>79</v>
       </c>
@@ -9538,7 +9742,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
+    <row r="430" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>79</v>
       </c>
@@ -9556,7 +9760,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
+    <row r="431" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>79</v>
       </c>
@@ -9574,7 +9778,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
+    <row r="432" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>79</v>
       </c>
@@ -9594,7 +9798,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
+    <row r="433" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>79</v>
       </c>
@@ -9614,7 +9818,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
+    <row r="434" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>79</v>
       </c>
@@ -9632,7 +9836,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
+    <row r="435" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>79</v>
       </c>
@@ -9650,7 +9854,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
+    <row r="436" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>80</v>
       </c>
@@ -9668,7 +9872,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
+    <row r="437" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>80</v>
       </c>
@@ -9686,7 +9890,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
+    <row r="438" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>80</v>
       </c>
@@ -9704,7 +9908,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
+    <row r="439" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>80</v>
       </c>
@@ -9724,7 +9928,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
+    <row r="440" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>80</v>
       </c>
@@ -9744,7 +9948,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
+    <row r="441" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>80</v>
       </c>
@@ -9762,7 +9966,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
+    <row r="442" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>80</v>
       </c>
@@ -9780,7 +9984,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
+    <row r="443" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>81</v>
       </c>
@@ -9800,7 +10004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
+    <row r="444" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>81</v>
       </c>
@@ -9820,7 +10024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
+    <row r="445" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>81</v>
       </c>
@@ -9840,7 +10044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
+    <row r="446" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>81</v>
       </c>
@@ -9858,7 +10062,7 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
+    <row r="447" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>81</v>
       </c>
@@ -9876,7 +10080,7 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
+    <row r="448" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>81</v>
       </c>
@@ -9907,8 +10111,11 @@
       <c r="J448" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
+      <c r="L448" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>81</v>
       </c>
@@ -9928,7 +10135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
+    <row r="450" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>82</v>
       </c>
@@ -9946,7 +10153,7 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
+    <row r="451" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>82</v>
       </c>
@@ -9977,8 +10184,11 @@
       <c r="J451" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
+      <c r="L451" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>82</v>
       </c>
@@ -10009,8 +10219,11 @@
       <c r="J452" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
+      <c r="L452" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>82</v>
       </c>
@@ -10041,8 +10254,11 @@
       <c r="J453" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
+      <c r="L453" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>82</v>
       </c>
@@ -10060,7 +10276,7 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
+    <row r="455" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>82</v>
       </c>
@@ -10091,8 +10307,11 @@
       <c r="J455" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
+      <c r="L455" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>82</v>
       </c>
@@ -10110,7 +10329,7 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
+    <row r="457" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>83</v>
       </c>
@@ -10128,7 +10347,7 @@
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
+    <row r="458" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>83</v>
       </c>
@@ -10160,7 +10379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
+    <row r="459" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>83</v>
       </c>
@@ -10191,8 +10410,11 @@
       <c r="J459" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
+      <c r="L459" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>83</v>
       </c>
@@ -10209,8 +10431,11 @@
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
+      <c r="L460" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>83</v>
       </c>
@@ -10228,7 +10453,7 @@
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
+    <row r="462" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>83</v>
       </c>
@@ -10246,7 +10471,7 @@
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
+    <row r="463" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>83</v>
       </c>
@@ -10264,7 +10489,7 @@
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
+    <row r="464" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>84</v>
       </c>
@@ -10295,8 +10520,11 @@
       <c r="J464" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
+      <c r="L464" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>84</v>
       </c>
@@ -10314,7 +10542,7 @@
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
+    <row r="466" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>84</v>
       </c>
@@ -10332,7 +10560,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
+    <row r="467" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>84</v>
       </c>
@@ -10363,8 +10591,11 @@
       <c r="J467" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
+      <c r="L467" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>84</v>
       </c>
@@ -10382,7 +10613,7 @@
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
+    <row r="469" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>84</v>
       </c>
@@ -10400,7 +10631,7 @@
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
+    <row r="470" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>84</v>
       </c>
@@ -10418,7 +10649,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
+    <row r="471" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>85</v>
       </c>
@@ -10449,8 +10680,11 @@
       <c r="J471" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
+      <c r="L471" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>85</v>
       </c>
@@ -10468,7 +10702,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
+    <row r="473" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>85</v>
       </c>
@@ -10486,7 +10720,7 @@
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
+    <row r="474" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>85</v>
       </c>
@@ -10517,8 +10751,11 @@
       <c r="J474" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
+      <c r="L474" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>85</v>
       </c>
@@ -10536,7 +10773,7 @@
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
+    <row r="476" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>85</v>
       </c>
@@ -10554,7 +10791,7 @@
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
+    <row r="477" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>85</v>
       </c>
@@ -10572,7 +10809,7 @@
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
+    <row r="478" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>86</v>
       </c>
@@ -10603,8 +10840,11 @@
       <c r="J478" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
+      <c r="L478" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>86</v>
       </c>
@@ -10622,7 +10862,7 @@
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
+    <row r="480" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>86</v>
       </c>
@@ -10640,7 +10880,7 @@
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
+    <row r="481" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>86</v>
       </c>
@@ -10658,7 +10898,7 @@
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
+    <row r="482" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>86</v>
       </c>
@@ -10676,7 +10916,7 @@
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
+    <row r="483" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>86</v>
       </c>
@@ -10694,7 +10934,7 @@
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
+    <row r="484" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>86</v>
       </c>
@@ -10712,7 +10952,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
+    <row r="485" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>87</v>
       </c>
@@ -10743,8 +10983,11 @@
       <c r="J485" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
+      <c r="L485" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>87</v>
       </c>
@@ -10764,7 +11007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
+    <row r="487" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>87</v>
       </c>
@@ -10784,7 +11027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
+    <row r="488" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>87</v>
       </c>
@@ -10804,7 +11047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
+    <row r="489" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>87</v>
       </c>
@@ -10824,7 +11067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
+    <row r="490" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>87</v>
       </c>
@@ -10855,8 +11098,11 @@
       <c r="J490" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
+      <c r="L490" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>87</v>
       </c>
@@ -10876,7 +11122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
+    <row r="492" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>88</v>
       </c>
@@ -10907,8 +11153,11 @@
       <c r="J492" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
+      <c r="L492" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>88</v>
       </c>
@@ -10926,7 +11175,7 @@
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
+    <row r="494" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>88</v>
       </c>
@@ -10944,7 +11193,7 @@
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
+    <row r="495" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>88</v>
       </c>
@@ -10964,7 +11213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
+    <row r="496" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>88</v>
       </c>
@@ -10984,7 +11233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
+    <row r="497" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>88</v>
       </c>
@@ -11015,8 +11264,11 @@
       <c r="J497" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
+      <c r="L497" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>88</v>
       </c>
@@ -11034,7 +11286,7 @@
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
+    <row r="499" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>89</v>
       </c>
@@ -11052,7 +11304,7 @@
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
+    <row r="500" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>89</v>
       </c>
@@ -11070,7 +11322,7 @@
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
+    <row r="501" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>89</v>
       </c>
@@ -11088,7 +11340,7 @@
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
+    <row r="502" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>89</v>
       </c>
@@ -11108,7 +11360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
+    <row r="503" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>89</v>
       </c>
@@ -11128,7 +11380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
+    <row r="504" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>89</v>
       </c>
@@ -11159,8 +11411,11 @@
       <c r="J504" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
+      <c r="L504" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>89</v>
       </c>
@@ -11178,7 +11433,7 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
+    <row r="506" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>90</v>
       </c>
@@ -11198,7 +11453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75">
+    <row r="507" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>90</v>
       </c>
@@ -11218,7 +11473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
+    <row r="508" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>90</v>
       </c>
@@ -11238,7 +11493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75">
+    <row r="509" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>90</v>
       </c>
@@ -11256,7 +11511,7 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75">
+    <row r="510" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>90</v>
       </c>
@@ -11274,7 +11529,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
+    <row r="511" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>90</v>
       </c>
@@ -11305,8 +11560,11 @@
       <c r="J511" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
+      <c r="L511" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>90</v>
       </c>
@@ -11326,7 +11584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75">
+    <row r="513" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>91</v>
       </c>
@@ -11344,7 +11602,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75">
+    <row r="514" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>91</v>
       </c>
@@ -11362,7 +11620,7 @@
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
+    <row r="515" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>91</v>
       </c>
@@ -11380,7 +11638,7 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75">
+    <row r="516" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>91</v>
       </c>
@@ -11400,7 +11658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
+    <row r="517" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>91</v>
       </c>
@@ -11418,7 +11676,7 @@
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75">
+    <row r="518" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>91</v>
       </c>
@@ -11436,7 +11694,7 @@
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
+    <row r="519" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>91</v>
       </c>
@@ -11454,7 +11712,7 @@
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
+    <row r="520" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>92</v>
       </c>
@@ -11472,7 +11730,7 @@
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75">
+    <row r="521" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>92</v>
       </c>
@@ -11490,7 +11748,7 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
+    <row r="522" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>92</v>
       </c>
@@ -11508,7 +11766,7 @@
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
+    <row r="523" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>92</v>
       </c>
@@ -11528,7 +11786,7 @@
       </c>
       <c r="J523" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
+    <row r="524" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>92</v>
       </c>
@@ -11548,7 +11806,7 @@
       </c>
       <c r="J524" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
+    <row r="525" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>92</v>
       </c>
@@ -11566,7 +11824,7 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
+    <row r="526" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>92</v>
       </c>
@@ -11584,7 +11842,7 @@
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
+    <row r="527" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>93</v>
       </c>
@@ -11602,7 +11860,7 @@
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
+    <row r="528" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>93</v>
       </c>
@@ -11620,7 +11878,7 @@
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
+    <row r="529" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>93</v>
       </c>
@@ -11638,7 +11896,7 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
+    <row r="530" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>93</v>
       </c>
@@ -11658,7 +11916,7 @@
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
+    <row r="531" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>93</v>
       </c>
@@ -11678,7 +11936,7 @@
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
+    <row r="532" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>93</v>
       </c>
@@ -11696,7 +11954,7 @@
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
+    <row r="533" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>93</v>
       </c>
@@ -11714,7 +11972,7 @@
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75">
+    <row r="534" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>94</v>
       </c>
@@ -11732,7 +11990,7 @@
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
+    <row r="535" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>94</v>
       </c>
@@ -11750,7 +12008,7 @@
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75">
+    <row r="536" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>94</v>
       </c>
@@ -11768,7 +12026,7 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
+    <row r="537" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>94</v>
       </c>
@@ -11788,7 +12046,7 @@
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75">
+    <row r="538" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>94</v>
       </c>
@@ -11808,7 +12066,7 @@
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
+    <row r="539" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>94</v>
       </c>
@@ -11826,7 +12084,7 @@
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
+    <row r="540" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>94</v>
       </c>
@@ -11844,7 +12102,7 @@
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75">
+    <row r="541" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>95</v>
       </c>
@@ -11862,7 +12120,7 @@
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
+    <row r="542" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>95</v>
       </c>
@@ -11880,7 +12138,7 @@
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
+    <row r="543" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>95</v>
       </c>
@@ -11898,7 +12156,7 @@
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
+    <row r="544" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>95</v>
       </c>
@@ -11918,7 +12176,7 @@
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75">
+    <row r="545" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>95</v>
       </c>
@@ -11938,7 +12196,7 @@
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
+    <row r="546" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>95</v>
       </c>
@@ -11956,7 +12214,7 @@
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
+    <row r="547" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>95</v>
       </c>
@@ -11974,7 +12232,7 @@
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75">
+    <row r="548" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>96</v>
       </c>
@@ -11992,7 +12250,7 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
+    <row r="549" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>96</v>
       </c>
@@ -12023,8 +12281,14 @@
       <c r="J549" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75">
+      <c r="K549" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L549" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>96</v>
       </c>
@@ -12055,8 +12319,14 @@
       <c r="J550" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75">
+      <c r="K550" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L550" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>96</v>
       </c>
@@ -12087,8 +12357,14 @@
       <c r="J551" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
+      <c r="K551" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L551" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>96</v>
       </c>
@@ -12106,7 +12382,7 @@
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75">
+    <row r="553" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>96</v>
       </c>
@@ -12137,8 +12413,14 @@
       <c r="J553" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
+      <c r="K553" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L553" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>96</v>
       </c>
@@ -12156,7 +12438,7 @@
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
+    <row r="555" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>97</v>
       </c>
@@ -12174,7 +12456,7 @@
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
+    <row r="556" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>97</v>
       </c>
@@ -12205,8 +12487,11 @@
       <c r="J556" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
+      <c r="L556" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>97</v>
       </c>
@@ -12237,8 +12522,11 @@
       <c r="J557" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
+      <c r="L557" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>97</v>
       </c>
@@ -12256,7 +12544,7 @@
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
+    <row r="559" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>97</v>
       </c>
@@ -12274,7 +12562,7 @@
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
+    <row r="560" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>97</v>
       </c>
@@ -12292,7 +12580,7 @@
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
+    <row r="561" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>97</v>
       </c>
@@ -12310,7 +12598,7 @@
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75">
+    <row r="562" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>98</v>
       </c>
@@ -12341,8 +12629,11 @@
       <c r="J562" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
+      <c r="L562" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>98</v>
       </c>
@@ -12360,7 +12651,7 @@
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75">
+    <row r="564" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>98</v>
       </c>
@@ -12378,7 +12669,7 @@
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75">
+    <row r="565" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>98</v>
       </c>
@@ -12396,7 +12687,7 @@
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
+    <row r="566" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>98</v>
       </c>
@@ -12414,7 +12705,7 @@
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75">
+    <row r="567" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>98</v>
       </c>
@@ -12432,7 +12723,7 @@
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75">
+    <row r="568" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>98</v>
       </c>
@@ -12450,7 +12741,7 @@
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75">
+    <row r="569" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>99</v>
       </c>
@@ -12468,7 +12759,7 @@
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
+    <row r="570" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>99</v>
       </c>
@@ -12486,7 +12777,7 @@
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75">
+    <row r="571" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>99</v>
       </c>
@@ -12504,7 +12795,7 @@
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
+    <row r="572" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>99</v>
       </c>
@@ -12535,8 +12826,11 @@
       <c r="J572" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75">
+      <c r="L572" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>99</v>
       </c>
@@ -12556,7 +12850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75">
+    <row r="574" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>99</v>
       </c>
@@ -12574,7 +12868,7 @@
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
+    <row r="575" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>99</v>
       </c>
@@ -12592,7 +12886,7 @@
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
+    <row r="576" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>100</v>
       </c>
@@ -12612,7 +12906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
+    <row r="577" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>100</v>
       </c>
@@ -12632,7 +12926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
+    <row r="578" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>100</v>
       </c>
@@ -12652,7 +12946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75">
+    <row r="579" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>100</v>
       </c>
@@ -12672,7 +12966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
+    <row r="580" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>100</v>
       </c>
@@ -12692,7 +12986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
+    <row r="581" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>100</v>
       </c>
@@ -12712,7 +13006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75">
+    <row r="582" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>100</v>
       </c>
@@ -12732,7 +13026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
+    <row r="583" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>101</v>
       </c>
@@ -12750,7 +13044,7 @@
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75">
+    <row r="584" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>101</v>
       </c>
@@ -12768,7 +13062,7 @@
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75">
+    <row r="585" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>101</v>
       </c>
@@ -12786,7 +13080,7 @@
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
+    <row r="586" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>101</v>
       </c>
@@ -12806,7 +13100,7 @@
       </c>
       <c r="J586" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
+    <row r="587" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>101</v>
       </c>
@@ -12826,7 +13120,7 @@
       </c>
       <c r="J587" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75">
+    <row r="588" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>101</v>
       </c>
@@ -12844,7 +13138,7 @@
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
+    <row r="589" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>101</v>
       </c>
@@ -12862,7 +13156,7 @@
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
+    <row r="590" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>102</v>
       </c>
@@ -12880,7 +13174,7 @@
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
+    <row r="591" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>102</v>
       </c>
@@ -12898,7 +13192,7 @@
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
+    <row r="592" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>102</v>
       </c>
@@ -12916,7 +13210,7 @@
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
+    <row r="593" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>102</v>
       </c>
@@ -12936,7 +13230,7 @@
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
+    <row r="594" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>102</v>
       </c>
@@ -12956,7 +13250,7 @@
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
+    <row r="595" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>102</v>
       </c>
@@ -12974,7 +13268,7 @@
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
+    <row r="596" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>102</v>
       </c>
@@ -12992,7 +13286,7 @@
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
+    <row r="597" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>103</v>
       </c>
@@ -13010,7 +13304,7 @@
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
+    <row r="598" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>103</v>
       </c>
@@ -13028,7 +13322,7 @@
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
+    <row r="599" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>103</v>
       </c>
@@ -13046,7 +13340,7 @@
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
+    <row r="600" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>103</v>
       </c>
@@ -13066,7 +13360,7 @@
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
+    <row r="601" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>103</v>
       </c>
@@ -13086,7 +13380,7 @@
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
+    <row r="602" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>103</v>
       </c>
@@ -13104,7 +13398,7 @@
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
+    <row r="603" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>103</v>
       </c>
@@ -13122,7 +13416,7 @@
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75">
+    <row r="604" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>104</v>
       </c>
@@ -13140,7 +13434,7 @@
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75">
+    <row r="605" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>104</v>
       </c>
@@ -13158,7 +13452,7 @@
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75">
+    <row r="606" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>104</v>
       </c>
@@ -13176,7 +13470,7 @@
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
+    <row r="607" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>104</v>
       </c>
@@ -13196,7 +13490,7 @@
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
+    <row r="608" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>104</v>
       </c>
@@ -13216,7 +13510,7 @@
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
+    <row r="609" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>104</v>
       </c>
@@ -13234,7 +13528,7 @@
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
+    <row r="610" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>104</v>
       </c>
@@ -13252,7 +13546,7 @@
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
+    <row r="611" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>105</v>
       </c>
@@ -13270,7 +13564,7 @@
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
+    <row r="612" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>105</v>
       </c>
@@ -13288,7 +13582,7 @@
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
+    <row r="613" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>105</v>
       </c>
@@ -13306,7 +13600,7 @@
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75">
+    <row r="614" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>105</v>
       </c>
@@ -13337,8 +13631,14 @@
       <c r="J614" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75">
+      <c r="K614" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L614" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>105</v>
       </c>
@@ -13358,7 +13658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
+    <row r="616" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>105</v>
       </c>
@@ -13376,7 +13676,7 @@
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75">
+    <row r="617" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>105</v>
       </c>
@@ -13394,7 +13694,7 @@
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75">
+    <row r="618" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>106</v>
       </c>
@@ -13412,7 +13712,7 @@
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
+    <row r="619" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>106</v>
       </c>
@@ -13430,7 +13730,7 @@
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
+    <row r="620" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>106</v>
       </c>
@@ -13448,7 +13748,7 @@
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
+    <row r="621" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>106</v>
       </c>
@@ -13479,8 +13779,14 @@
       <c r="J621" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75">
+      <c r="K621" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L621" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>106</v>
       </c>
@@ -13500,7 +13806,7 @@
       </c>
       <c r="J622" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
+    <row r="623" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>106</v>
       </c>
@@ -13518,7 +13824,7 @@
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
+    <row r="624" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>106</v>
       </c>
@@ -13536,7 +13842,7 @@
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75">
+    <row r="625" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>107</v>
       </c>
@@ -13554,7 +13860,7 @@
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
+    <row r="626" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>107</v>
       </c>
@@ -13572,7 +13878,7 @@
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75">
+    <row r="627" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>107</v>
       </c>
@@ -13590,7 +13896,7 @@
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75">
+    <row r="628" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>107</v>
       </c>
@@ -13610,7 +13916,7 @@
       </c>
       <c r="J628" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75">
+    <row r="629" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>107</v>
       </c>
@@ -13630,7 +13936,7 @@
       </c>
       <c r="J629" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
+    <row r="630" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>107</v>
       </c>
@@ -13648,7 +13954,7 @@
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
+    <row r="631" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>107</v>
       </c>
@@ -13666,7 +13972,7 @@
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
+    <row r="632" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>108</v>
       </c>
@@ -13684,7 +13990,7 @@
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
+    <row r="633" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>108</v>
       </c>
@@ -13702,7 +14008,7 @@
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75">
+    <row r="634" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>108</v>
       </c>
@@ -13720,7 +14026,7 @@
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75">
+    <row r="635" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>108</v>
       </c>
@@ -13738,7 +14044,7 @@
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
+    <row r="636" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>108</v>
       </c>
@@ -13756,7 +14062,7 @@
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75">
+    <row r="637" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>108</v>
       </c>
@@ -13774,7 +14080,7 @@
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75">
+    <row r="638" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>108</v>
       </c>
@@ -13792,7 +14098,7 @@
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75">
+    <row r="639" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>109</v>
       </c>
@@ -13810,7 +14116,7 @@
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75">
+    <row r="640" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>109</v>
       </c>
@@ -13828,7 +14134,7 @@
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75">
+    <row r="641" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>109</v>
       </c>
@@ -13846,7 +14152,7 @@
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75">
+    <row r="642" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>109</v>
       </c>
@@ -13866,7 +14172,7 @@
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75">
+    <row r="643" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>109</v>
       </c>
@@ -13886,7 +14192,7 @@
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75">
+    <row r="644" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>109</v>
       </c>
@@ -13904,7 +14210,7 @@
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75">
+    <row r="645" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>109</v>
       </c>
@@ -13922,7 +14228,7 @@
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75">
+    <row r="646" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>110</v>
       </c>
@@ -13940,7 +14246,7 @@
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75">
+    <row r="647" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>110</v>
       </c>
@@ -13958,7 +14264,7 @@
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75">
+    <row r="648" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>110</v>
       </c>
@@ -13976,7 +14282,7 @@
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75">
+    <row r="649" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>110</v>
       </c>
@@ -13996,7 +14302,7 @@
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75">
+    <row r="650" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>110</v>
       </c>
@@ -14016,7 +14322,7 @@
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75">
+    <row r="651" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>110</v>
       </c>
@@ -14034,7 +14340,7 @@
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75">
+    <row r="652" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>110</v>
       </c>
@@ -14052,7 +14358,7 @@
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75">
+    <row r="653" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>111</v>
       </c>
@@ -14070,7 +14376,7 @@
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75">
+    <row r="654" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>111</v>
       </c>
@@ -14088,7 +14394,7 @@
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75">
+    <row r="655" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>111</v>
       </c>
@@ -14106,7 +14412,7 @@
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75">
+    <row r="656" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>111</v>
       </c>
@@ -14126,7 +14432,7 @@
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75">
+    <row r="657" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>111</v>
       </c>
@@ -14146,7 +14452,7 @@
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75">
+    <row r="658" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>111</v>
       </c>
@@ -14164,7 +14470,7 @@
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75">
+    <row r="659" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>111</v>
       </c>
@@ -14182,7 +14488,7 @@
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75">
+    <row r="660" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>112</v>
       </c>
@@ -14200,7 +14506,7 @@
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75">
+    <row r="661" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>112</v>
       </c>
@@ -14218,7 +14524,7 @@
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75">
+    <row r="662" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>112</v>
       </c>
@@ -14236,7 +14542,7 @@
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75">
+    <row r="663" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>112</v>
       </c>
@@ -14267,8 +14573,14 @@
       <c r="J663" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75">
+      <c r="K663" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L663" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>112</v>
       </c>
@@ -14287,8 +14599,11 @@
       <c r="J664" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75">
+      <c r="L664" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>112</v>
       </c>
@@ -14306,7 +14621,7 @@
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75">
+    <row r="666" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>112</v>
       </c>
@@ -14324,7 +14639,7 @@
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75">
+    <row r="667" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>113</v>
       </c>
@@ -14342,7 +14657,7 @@
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75">
+    <row r="668" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>113</v>
       </c>
@@ -14360,7 +14675,7 @@
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75">
+    <row r="669" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>113</v>
       </c>
@@ -14378,7 +14693,7 @@
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75">
+    <row r="670" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>113</v>
       </c>
@@ -14409,8 +14724,14 @@
       <c r="J670" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75">
+      <c r="K670" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L670" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>113</v>
       </c>
@@ -14429,8 +14750,11 @@
       <c r="J671" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75">
+      <c r="L671" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>113</v>
       </c>
@@ -14448,7 +14772,7 @@
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75">
+    <row r="673" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>113</v>
       </c>
@@ -14466,7 +14790,7 @@
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75">
+    <row r="674" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>114</v>
       </c>
@@ -14495,8 +14819,14 @@
       <c r="J674" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75">
+      <c r="K674" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L674" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>115</v>
       </c>
@@ -14525,8 +14855,14 @@
       <c r="J675" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75">
+      <c r="K675" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L675" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>116</v>
       </c>
@@ -14555,8 +14891,14 @@
       <c r="J676" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75">
+      <c r="K676" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L676" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>117</v>
       </c>
@@ -14585,8 +14927,14 @@
       <c r="J677" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75">
+      <c r="K677" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L677" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>118</v>
       </c>
@@ -14602,7 +14950,7 @@
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75">
+    <row r="679" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>119</v>
       </c>
@@ -14618,7 +14966,7 @@
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75">
+    <row r="680" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>120</v>
       </c>
@@ -14634,7 +14982,7 @@
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75">
+    <row r="681" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>121</v>
       </c>
@@ -14663,8 +15011,14 @@
       <c r="J681" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75">
+      <c r="K681" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L681" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>122</v>
       </c>
@@ -14693,8 +15047,14 @@
       <c r="J682" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75">
+      <c r="K682" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L682" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>123</v>
       </c>
@@ -14723,8 +15083,14 @@
       <c r="J683" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75">
+      <c r="K683" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L683" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>124</v>
       </c>
@@ -14753,8 +15119,14 @@
       <c r="J684" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75">
+      <c r="K684" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L684" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>125</v>
       </c>
@@ -14783,8 +15155,14 @@
       <c r="J685" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75">
+      <c r="K685" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L685" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>126</v>
       </c>
@@ -14813,8 +15191,14 @@
       <c r="J686" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75">
+      <c r="K686" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L686" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>127</v>
       </c>
@@ -14843,8 +15227,14 @@
       <c r="J687" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75">
+      <c r="K687" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L687" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>128</v>
       </c>
@@ -14873,8 +15263,14 @@
       <c r="J688" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75">
+      <c r="K688" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L688" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>129</v>
       </c>
@@ -14903,8 +15299,14 @@
       <c r="J689" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75">
+      <c r="K689" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L689" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>130</v>
       </c>
@@ -14922,7 +15324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75">
+    <row r="691" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>131</v>
       </c>
@@ -14951,8 +15353,14 @@
       <c r="J691" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75">
+      <c r="K691" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L691" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>132</v>
       </c>
@@ -14973,8 +15381,11 @@
       <c r="H692" s="1"/>
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75">
+      <c r="L692" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>133</v>
       </c>
@@ -15003,8 +15414,14 @@
       <c r="J693" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75">
+      <c r="K693" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L693" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>134</v>
       </c>
@@ -15022,7 +15439,7 @@
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75">
+    <row r="695" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>135</v>
       </c>
@@ -15040,7 +15457,7 @@
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75">
+    <row r="696" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>136</v>
       </c>
@@ -15063,8 +15480,11 @@
       <c r="H696" s="1"/>
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75">
+      <c r="L696" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>137</v>
       </c>
@@ -15082,7 +15502,7 @@
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75">
+    <row r="698" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>138</v>
       </c>
@@ -15100,7 +15520,7 @@
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75">
+    <row r="699" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>139</v>
       </c>
@@ -15118,7 +15538,7 @@
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75">
+    <row r="700" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>140</v>
       </c>
@@ -15136,7 +15556,7 @@
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75">
+    <row r="701" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>141</v>
       </c>
@@ -15154,7 +15574,7 @@
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75">
+    <row r="702" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>142</v>
       </c>
@@ -15172,7 +15592,7 @@
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75">
+    <row r="703" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>143</v>
       </c>
@@ -15197,8 +15617,14 @@
       </c>
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75">
+      <c r="K703" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L703" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>144</v>
       </c>
@@ -15221,8 +15647,11 @@
       <c r="H704" s="1"/>
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75">
+      <c r="L704" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>145</v>
       </c>
@@ -15240,7 +15669,7 @@
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75">
+    <row r="706" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>146</v>
       </c>
@@ -15269,8 +15698,11 @@
       <c r="J706" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75">
+      <c r="L706" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>147</v>
       </c>
@@ -15288,7 +15720,7 @@
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75">
+    <row r="708" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>148</v>
       </c>
@@ -15304,7 +15736,7 @@
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75">
+    <row r="709" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>149</v>
       </c>
@@ -15330,7 +15762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75">
+    <row r="710" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>150</v>
       </c>
@@ -15359,8 +15791,11 @@
       <c r="J710" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75">
+      <c r="L710" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>151</v>
       </c>
@@ -15389,8 +15824,11 @@
       <c r="J711" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75">
+      <c r="L711" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>152</v>
       </c>
@@ -15419,8 +15857,11 @@
       <c r="J712" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75">
+      <c r="L712" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>153</v>
       </c>
@@ -15449,8 +15890,11 @@
       <c r="J713" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75">
+      <c r="L713" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>154</v>
       </c>
@@ -15479,8 +15923,11 @@
       <c r="J714" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75">
+      <c r="L714" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>155</v>
       </c>
@@ -15499,8 +15946,11 @@
       <c r="J715" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75">
+      <c r="L715" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>155</v>
       </c>
@@ -15520,7 +15970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75">
+    <row r="717" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>156</v>
       </c>
@@ -15540,7 +15990,7 @@
       </c>
       <c r="J717" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75">
+    <row r="718" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>156</v>
       </c>
@@ -15560,7 +16010,7 @@
       </c>
       <c r="J718" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75">
+    <row r="719" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>157</v>
       </c>
@@ -15580,7 +16030,7 @@
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75">
+    <row r="720" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>157</v>
       </c>
@@ -15600,7 +16050,7 @@
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75">
+    <row r="721" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>158</v>
       </c>
@@ -15620,7 +16070,7 @@
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75">
+    <row r="722" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>158</v>
       </c>
@@ -15640,7 +16090,7 @@
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75">
+    <row r="723" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>159</v>
       </c>
@@ -15660,7 +16110,7 @@
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75">
+    <row r="724" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>159</v>
       </c>
@@ -15680,7 +16130,7 @@
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75">
+    <row r="725" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>160</v>
       </c>
@@ -15700,7 +16150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75">
+    <row r="726" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>160</v>
       </c>
@@ -15720,7 +16170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75">
+    <row r="727" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>161</v>
       </c>
@@ -15740,7 +16190,7 @@
       </c>
       <c r="J727" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75">
+    <row r="728" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>161</v>
       </c>
@@ -15760,7 +16210,7 @@
       </c>
       <c r="J728" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75">
+    <row r="729" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>162</v>
       </c>
@@ -15780,7 +16230,7 @@
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75">
+    <row r="730" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>162</v>
       </c>
@@ -15800,7 +16250,7 @@
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75">
+    <row r="731" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>163</v>
       </c>
@@ -15820,7 +16270,7 @@
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75">
+    <row r="732" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>163</v>
       </c>
@@ -15840,7 +16290,7 @@
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75">
+    <row r="733" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>164</v>
       </c>
@@ -15860,7 +16310,7 @@
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75">
+    <row r="734" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>164</v>
       </c>
@@ -15880,7 +16330,7 @@
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75">
+    <row r="735" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>165</v>
       </c>
@@ -15900,7 +16350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75">
+    <row r="736" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>165</v>
       </c>
@@ -15920,7 +16370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75">
+    <row r="737" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>166</v>
       </c>
@@ -15940,7 +16390,7 @@
       </c>
       <c r="J737" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75">
+    <row r="738" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>166</v>
       </c>
@@ -15960,7 +16410,7 @@
       </c>
       <c r="J738" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75">
+    <row r="739" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>167</v>
       </c>
@@ -15980,7 +16430,7 @@
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75">
+    <row r="740" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>167</v>
       </c>
@@ -16000,7 +16450,7 @@
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75">
+    <row r="741" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>168</v>
       </c>
@@ -16020,7 +16470,7 @@
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75">
+    <row r="742" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>168</v>
       </c>
@@ -16040,7 +16490,7 @@
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75">
+    <row r="743" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>169</v>
       </c>
@@ -16060,7 +16510,7 @@
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75">
+    <row r="744" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>169</v>
       </c>
@@ -16080,7 +16530,7 @@
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75">
+    <row r="745" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>170</v>
       </c>
@@ -16100,7 +16550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75">
+    <row r="746" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>170</v>
       </c>
@@ -16120,7 +16570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75">
+    <row r="747" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>171</v>
       </c>
@@ -16140,7 +16590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75">
+    <row r="748" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>171</v>
       </c>
@@ -16160,7 +16610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18.75">
+    <row r="749" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>171</v>
       </c>
@@ -16180,7 +16630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18.75">
+    <row r="750" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>172</v>
       </c>
@@ -16211,8 +16661,14 @@
       <c r="J750" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18.75">
+      <c r="K750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L750" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>172</v>
       </c>
@@ -16232,7 +16688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18.75">
+    <row r="752" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>172</v>
       </c>
@@ -16252,7 +16708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18.75">
+    <row r="753" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>172</v>
       </c>
@@ -16272,7 +16728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18.75">
+    <row r="754" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>172</v>
       </c>
@@ -16292,7 +16748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18.75">
+    <row r="755" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>172</v>
       </c>
@@ -16312,7 +16768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18.75">
+    <row r="756" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>172</v>
       </c>
@@ -16332,7 +16788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18.75">
+    <row r="757" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>173</v>
       </c>
@@ -16363,8 +16819,14 @@
       <c r="J757" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18.75">
+      <c r="K757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L757" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>173</v>
       </c>
@@ -16384,7 +16846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18.75">
+    <row r="759" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>173</v>
       </c>
@@ -16404,7 +16866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18.75">
+    <row r="760" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>173</v>
       </c>
@@ -16424,7 +16886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18.75">
+    <row r="761" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>173</v>
       </c>
@@ -16444,7 +16906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18.75">
+    <row r="762" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>173</v>
       </c>
@@ -16464,7 +16926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18.75">
+    <row r="763" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>173</v>
       </c>
@@ -16484,7 +16946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18.75">
+    <row r="764" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>174</v>
       </c>
@@ -16515,8 +16977,14 @@
       <c r="J764" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18.75">
+      <c r="K764" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L764" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>174</v>
       </c>
@@ -16536,7 +17004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18.75">
+    <row r="766" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>174</v>
       </c>
@@ -16556,7 +17024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18.75">
+    <row r="767" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>174</v>
       </c>
@@ -16576,7 +17044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18.75">
+    <row r="768" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>174</v>
       </c>
@@ -16596,7 +17064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18.75">
+    <row r="769" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>174</v>
       </c>
@@ -16616,7 +17084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18.75">
+    <row r="770" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>174</v>
       </c>
@@ -16636,22 +17104,52 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18.75">
-      <c r="A771" s="1"/>
+    <row r="771" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="B771" s="1"/>
-      <c r="C771" s="2"/>
-      <c r="D771" s="1"/>
-      <c r="E771" s="1"/>
-      <c r="F771" s="1"/>
-      <c r="G771" s="1"/>
-      <c r="H771" s="1"/>
-      <c r="I771" s="1"/>
-      <c r="J771" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18.75">
-      <c r="A772" s="1"/>
-      <c r="B772" s="1"/>
-      <c r="C772" s="2"/>
+      <c r="C771" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L771" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
@@ -16659,8 +17157,117 @@
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
+      <c r="L772" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A773" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C773" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A774" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C774" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A775" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C775" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A776" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C776" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L776" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A777" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C777" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L777" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A778" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C778" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A779" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C779" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A780" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C780" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A781" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C781" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>